--- a/applications/default/data/national/default_options.xlsx
+++ b/applications/default/data/national/default_options.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/samhainsworth/Desktop/github_projects/Nutrition/applications/default/data/national/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{5A32AD0B-AD59-2044-929C-246A5B87D66D}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{7A3C7898-9CCF-624D-948C-805B472ED23E}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4280" yWindow="660" windowWidth="25600" windowHeight="15540" activeTab="1" xr2:uid="{3C28A406-3B38-3B44-81A1-855DF4E1C8BA}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="15540" activeTab="1" xr2:uid="{3C28A406-3B38-3B44-81A1-855DF4E1C8BA}"/>
   </bookViews>
   <sheets>
     <sheet name="Programs to include" sheetId="3" r:id="rId1"/>
@@ -1075,10 +1075,10 @@
   <sheetPr>
     <tabColor theme="8" tint="-0.249977111117893"/>
   </sheetPr>
-  <dimension ref="A1:P38"/>
+  <dimension ref="A1:AJ38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScaleNormal="170" workbookViewId="0">
-      <selection activeCell="D26" sqref="D26"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="170" workbookViewId="0">
+      <selection activeCell="L4" sqref="L4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1088,7 +1088,7 @@
     <col min="3" max="4" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>3</v>
       </c>
@@ -1122,23 +1122,33 @@
       <c r="K1" s="2">
         <v>2025</v>
       </c>
-      <c r="L1" s="2">
-        <v>2026</v>
-      </c>
-      <c r="M1" s="2">
-        <v>2027</v>
-      </c>
-      <c r="N1" s="2">
-        <v>2028</v>
-      </c>
-      <c r="O1" s="2">
-        <v>2029</v>
-      </c>
-      <c r="P1" s="2">
-        <v>2030</v>
-      </c>
-    </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="L1" s="2"/>
+      <c r="M1" s="2"/>
+      <c r="N1" s="2"/>
+      <c r="O1" s="2"/>
+      <c r="P1" s="2"/>
+      <c r="Q1" s="2"/>
+      <c r="R1" s="2"/>
+      <c r="S1" s="2"/>
+      <c r="T1" s="2"/>
+      <c r="U1" s="2"/>
+      <c r="V1" s="2"/>
+      <c r="W1" s="2"/>
+      <c r="X1" s="2"/>
+      <c r="Y1" s="2"/>
+      <c r="Z1" s="2"/>
+      <c r="AA1" s="2"/>
+      <c r="AB1" s="2"/>
+      <c r="AC1" s="2"/>
+      <c r="AD1" s="2"/>
+      <c r="AE1" s="2"/>
+      <c r="AF1" s="2"/>
+      <c r="AG1" s="2"/>
+      <c r="AH1" s="2"/>
+      <c r="AI1" s="2"/>
+      <c r="AJ1" s="2"/>
+    </row>
+    <row r="2" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A2" s="5" t="s">
         <v>34</v>
       </c>
@@ -1160,7 +1170,7 @@
       <c r="O2" s="13"/>
       <c r="P2" s="13"/>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A3" s="5" t="s">
         <v>33</v>
       </c>
@@ -1182,7 +1192,7 @@
       <c r="O3" s="13"/>
       <c r="P3" s="13"/>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A4" s="5" t="s">
         <v>32</v>
       </c>
@@ -1204,7 +1214,7 @@
       <c r="O4" s="13"/>
       <c r="P4" s="13"/>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A5" s="5" t="s">
         <v>31</v>
       </c>
@@ -1226,7 +1236,7 @@
       <c r="O5" s="13"/>
       <c r="P5" s="13"/>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A6" s="5" t="s">
         <v>30</v>
       </c>
@@ -1248,7 +1258,7 @@
       <c r="O6" s="13"/>
       <c r="P6" s="13"/>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A7" s="5" t="s">
         <v>29</v>
       </c>
@@ -1270,7 +1280,7 @@
       <c r="O7" s="13"/>
       <c r="P7" s="13"/>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A8" s="5" t="s">
         <v>28</v>
       </c>
@@ -1292,7 +1302,7 @@
       <c r="O8" s="13"/>
       <c r="P8" s="13"/>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A9" s="5" t="s">
         <v>27</v>
       </c>
@@ -1314,7 +1324,7 @@
       <c r="O9" s="13"/>
       <c r="P9" s="13"/>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A10" s="14" t="s">
         <v>45</v>
       </c>
@@ -1336,7 +1346,7 @@
       <c r="O10" s="13"/>
       <c r="P10" s="13"/>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A11" s="14" t="s">
         <v>46</v>
       </c>
@@ -1358,7 +1368,7 @@
       <c r="O11" s="13"/>
       <c r="P11" s="13"/>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A12" s="14" t="s">
         <v>47</v>
       </c>
@@ -1380,7 +1390,7 @@
       <c r="O12" s="13"/>
       <c r="P12" s="13"/>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A13" s="14" t="s">
         <v>48</v>
       </c>
@@ -1402,7 +1412,7 @@
       <c r="O13" s="13"/>
       <c r="P13" s="13"/>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A14" s="5" t="s">
         <v>44</v>
       </c>
@@ -1424,7 +1434,7 @@
       <c r="O14" s="13"/>
       <c r="P14" s="13"/>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A15" s="5" t="s">
         <v>49</v>
       </c>
@@ -1446,7 +1456,7 @@
       <c r="O15" s="13"/>
       <c r="P15" s="13"/>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A16" s="5" t="s">
         <v>26</v>
       </c>

--- a/applications/default/data/national/default_options.xlsx
+++ b/applications/default/data/national/default_options.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/samhainsworth/Desktop/github_projects/Nutrition/applications/default/data/national/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{7A3C7898-9CCF-624D-948C-805B472ED23E}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{ECD692AD-1532-F445-8C89-3EC7DF3F0A9C}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="15540" activeTab="1" xr2:uid="{3C28A406-3B38-3B44-81A1-855DF4E1C8BA}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="15540" activeTab="3" xr2:uid="{3C28A406-3B38-3B44-81A1-855DF4E1C8BA}"/>
   </bookViews>
   <sheets>
     <sheet name="Programs to include" sheetId="3" r:id="rId1"/>
@@ -55,7 +55,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="207" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="208" uniqueCount="52">
   <si>
     <t>Coverage</t>
   </si>
@@ -208,6 +208,9 @@
   </si>
   <si>
     <t>multiples of flexible funding</t>
+  </si>
+  <si>
+    <t>1,2</t>
   </si>
 </sst>
 </file>
@@ -1075,10 +1078,10 @@
   <sheetPr>
     <tabColor theme="8" tint="-0.249977111117893"/>
   </sheetPr>
-  <dimension ref="A1:AJ38"/>
+  <dimension ref="A1:AE38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="170" workbookViewId="0">
-      <selection activeCell="L4" sqref="L4"/>
+    <sheetView zoomScaleNormal="170" workbookViewId="0">
+      <selection activeCell="K8" sqref="K8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1088,7 +1091,7 @@
     <col min="3" max="4" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>3</v>
       </c>
@@ -1142,13 +1145,8 @@
       <c r="AC1" s="2"/>
       <c r="AD1" s="2"/>
       <c r="AE1" s="2"/>
-      <c r="AF1" s="2"/>
-      <c r="AG1" s="2"/>
-      <c r="AH1" s="2"/>
-      <c r="AI1" s="2"/>
-      <c r="AJ1" s="2"/>
-    </row>
-    <row r="2" spans="1:36" x14ac:dyDescent="0.2">
+    </row>
+    <row r="2" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A2" s="5" t="s">
         <v>34</v>
       </c>
@@ -1164,13 +1162,8 @@
       <c r="I2" s="13"/>
       <c r="J2" s="13"/>
       <c r="K2" s="13"/>
-      <c r="L2" s="13"/>
-      <c r="M2" s="13"/>
-      <c r="N2" s="13"/>
-      <c r="O2" s="13"/>
-      <c r="P2" s="13"/>
-    </row>
-    <row r="3" spans="1:36" x14ac:dyDescent="0.2">
+    </row>
+    <row r="3" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A3" s="5" t="s">
         <v>33</v>
       </c>
@@ -1186,13 +1179,8 @@
       <c r="I3" s="13"/>
       <c r="J3" s="13"/>
       <c r="K3" s="13"/>
-      <c r="L3" s="13"/>
-      <c r="M3" s="13"/>
-      <c r="N3" s="13"/>
-      <c r="O3" s="13"/>
-      <c r="P3" s="13"/>
-    </row>
-    <row r="4" spans="1:36" x14ac:dyDescent="0.2">
+    </row>
+    <row r="4" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A4" s="5" t="s">
         <v>32</v>
       </c>
@@ -1208,13 +1196,8 @@
       <c r="I4" s="13"/>
       <c r="J4" s="13"/>
       <c r="K4" s="13"/>
-      <c r="L4" s="13"/>
-      <c r="M4" s="13"/>
-      <c r="N4" s="13"/>
-      <c r="O4" s="13"/>
-      <c r="P4" s="13"/>
-    </row>
-    <row r="5" spans="1:36" x14ac:dyDescent="0.2">
+    </row>
+    <row r="5" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A5" s="5" t="s">
         <v>31</v>
       </c>
@@ -1230,13 +1213,8 @@
       <c r="I5" s="13"/>
       <c r="J5" s="13"/>
       <c r="K5" s="13"/>
-      <c r="L5" s="13"/>
-      <c r="M5" s="13"/>
-      <c r="N5" s="13"/>
-      <c r="O5" s="13"/>
-      <c r="P5" s="13"/>
-    </row>
-    <row r="6" spans="1:36" x14ac:dyDescent="0.2">
+    </row>
+    <row r="6" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A6" s="5" t="s">
         <v>30</v>
       </c>
@@ -1252,13 +1230,8 @@
       <c r="I6" s="13"/>
       <c r="J6" s="13"/>
       <c r="K6" s="13"/>
-      <c r="L6" s="13"/>
-      <c r="M6" s="13"/>
-      <c r="N6" s="13"/>
-      <c r="O6" s="13"/>
-      <c r="P6" s="13"/>
-    </row>
-    <row r="7" spans="1:36" x14ac:dyDescent="0.2">
+    </row>
+    <row r="7" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A7" s="5" t="s">
         <v>29</v>
       </c>
@@ -1274,13 +1247,8 @@
       <c r="I7" s="13"/>
       <c r="J7" s="13"/>
       <c r="K7" s="13"/>
-      <c r="L7" s="13"/>
-      <c r="M7" s="13"/>
-      <c r="N7" s="13"/>
-      <c r="O7" s="13"/>
-      <c r="P7" s="13"/>
-    </row>
-    <row r="8" spans="1:36" x14ac:dyDescent="0.2">
+    </row>
+    <row r="8" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A8" s="5" t="s">
         <v>28</v>
       </c>
@@ -1296,13 +1264,8 @@
       <c r="I8" s="13"/>
       <c r="J8" s="13"/>
       <c r="K8" s="13"/>
-      <c r="L8" s="13"/>
-      <c r="M8" s="13"/>
-      <c r="N8" s="13"/>
-      <c r="O8" s="13"/>
-      <c r="P8" s="13"/>
-    </row>
-    <row r="9" spans="1:36" x14ac:dyDescent="0.2">
+    </row>
+    <row r="9" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A9" s="5" t="s">
         <v>27</v>
       </c>
@@ -1318,13 +1281,8 @@
       <c r="I9" s="13"/>
       <c r="J9" s="13"/>
       <c r="K9" s="13"/>
-      <c r="L9" s="13"/>
-      <c r="M9" s="13"/>
-      <c r="N9" s="13"/>
-      <c r="O9" s="13"/>
-      <c r="P9" s="13"/>
-    </row>
-    <row r="10" spans="1:36" x14ac:dyDescent="0.2">
+    </row>
+    <row r="10" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A10" s="14" t="s">
         <v>45</v>
       </c>
@@ -1340,13 +1298,8 @@
       <c r="I10" s="13"/>
       <c r="J10" s="13"/>
       <c r="K10" s="13"/>
-      <c r="L10" s="13"/>
-      <c r="M10" s="13"/>
-      <c r="N10" s="13"/>
-      <c r="O10" s="13"/>
-      <c r="P10" s="13"/>
-    </row>
-    <row r="11" spans="1:36" x14ac:dyDescent="0.2">
+    </row>
+    <row r="11" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A11" s="14" t="s">
         <v>46</v>
       </c>
@@ -1362,13 +1315,8 @@
       <c r="I11" s="13"/>
       <c r="J11" s="13"/>
       <c r="K11" s="13"/>
-      <c r="L11" s="13"/>
-      <c r="M11" s="13"/>
-      <c r="N11" s="13"/>
-      <c r="O11" s="13"/>
-      <c r="P11" s="13"/>
-    </row>
-    <row r="12" spans="1:36" x14ac:dyDescent="0.2">
+    </row>
+    <row r="12" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A12" s="14" t="s">
         <v>47</v>
       </c>
@@ -1384,13 +1332,8 @@
       <c r="I12" s="13"/>
       <c r="J12" s="13"/>
       <c r="K12" s="13"/>
-      <c r="L12" s="13"/>
-      <c r="M12" s="13"/>
-      <c r="N12" s="13"/>
-      <c r="O12" s="13"/>
-      <c r="P12" s="13"/>
-    </row>
-    <row r="13" spans="1:36" x14ac:dyDescent="0.2">
+    </row>
+    <row r="13" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A13" s="14" t="s">
         <v>48</v>
       </c>
@@ -1406,13 +1349,8 @@
       <c r="I13" s="13"/>
       <c r="J13" s="13"/>
       <c r="K13" s="13"/>
-      <c r="L13" s="13"/>
-      <c r="M13" s="13"/>
-      <c r="N13" s="13"/>
-      <c r="O13" s="13"/>
-      <c r="P13" s="13"/>
-    </row>
-    <row r="14" spans="1:36" x14ac:dyDescent="0.2">
+    </row>
+    <row r="14" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A14" s="5" t="s">
         <v>44</v>
       </c>
@@ -1428,13 +1366,8 @@
       <c r="I14" s="13"/>
       <c r="J14" s="13"/>
       <c r="K14" s="13"/>
-      <c r="L14" s="13"/>
-      <c r="M14" s="13"/>
-      <c r="N14" s="13"/>
-      <c r="O14" s="13"/>
-      <c r="P14" s="13"/>
-    </row>
-    <row r="15" spans="1:36" x14ac:dyDescent="0.2">
+    </row>
+    <row r="15" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A15" s="5" t="s">
         <v>49</v>
       </c>
@@ -1450,13 +1383,8 @@
       <c r="I15" s="13"/>
       <c r="J15" s="13"/>
       <c r="K15" s="13"/>
-      <c r="L15" s="13"/>
-      <c r="M15" s="13"/>
-      <c r="N15" s="13"/>
-      <c r="O15" s="13"/>
-      <c r="P15" s="13"/>
-    </row>
-    <row r="16" spans="1:36" x14ac:dyDescent="0.2">
+    </row>
+    <row r="16" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A16" s="5" t="s">
         <v>26</v>
       </c>
@@ -1472,13 +1400,8 @@
       <c r="I16" s="13"/>
       <c r="J16" s="13"/>
       <c r="K16" s="13"/>
-      <c r="L16" s="13"/>
-      <c r="M16" s="13"/>
-      <c r="N16" s="13"/>
-      <c r="O16" s="13"/>
-      <c r="P16" s="13"/>
-    </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.2">
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A17" s="5" t="s">
         <v>25</v>
       </c>
@@ -1494,13 +1417,8 @@
       <c r="I17" s="13"/>
       <c r="J17" s="13"/>
       <c r="K17" s="13"/>
-      <c r="L17" s="13"/>
-      <c r="M17" s="13"/>
-      <c r="N17" s="13"/>
-      <c r="O17" s="13"/>
-      <c r="P17" s="13"/>
-    </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.2">
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A18" s="5" t="s">
         <v>7</v>
       </c>
@@ -1518,13 +1436,8 @@
       <c r="I18" s="13"/>
       <c r="J18" s="13"/>
       <c r="K18" s="13"/>
-      <c r="L18" s="13"/>
-      <c r="M18" s="13"/>
-      <c r="N18" s="13"/>
-      <c r="O18" s="13"/>
-      <c r="P18" s="13"/>
-    </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.2">
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A19" s="5" t="s">
         <v>6</v>
       </c>
@@ -1540,13 +1453,8 @@
       <c r="I19" s="13"/>
       <c r="J19" s="13"/>
       <c r="K19" s="13"/>
-      <c r="L19" s="13"/>
-      <c r="M19" s="13"/>
-      <c r="N19" s="13"/>
-      <c r="O19" s="13"/>
-      <c r="P19" s="13"/>
-    </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.2">
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A20" s="5" t="s">
         <v>4</v>
       </c>
@@ -1562,13 +1470,8 @@
       <c r="I20" s="13"/>
       <c r="J20" s="13"/>
       <c r="K20" s="13"/>
-      <c r="L20" s="13"/>
-      <c r="M20" s="13"/>
-      <c r="N20" s="13"/>
-      <c r="O20" s="13"/>
-      <c r="P20" s="13"/>
-    </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.2">
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A21" s="5" t="s">
         <v>18</v>
       </c>
@@ -1584,13 +1487,8 @@
       <c r="I21" s="13"/>
       <c r="J21" s="13"/>
       <c r="K21" s="13"/>
-      <c r="L21" s="13"/>
-      <c r="M21" s="13"/>
-      <c r="N21" s="13"/>
-      <c r="O21" s="13"/>
-      <c r="P21" s="13"/>
-    </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.2">
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A22" s="5" t="s">
         <v>24</v>
       </c>
@@ -1606,13 +1504,8 @@
       <c r="I22" s="13"/>
       <c r="J22" s="13"/>
       <c r="K22" s="13"/>
-      <c r="L22" s="13"/>
-      <c r="M22" s="13"/>
-      <c r="N22" s="13"/>
-      <c r="O22" s="13"/>
-      <c r="P22" s="13"/>
-    </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.2">
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A23" s="5" t="s">
         <v>23</v>
       </c>
@@ -1628,13 +1521,8 @@
       <c r="I23" s="13"/>
       <c r="J23" s="13"/>
       <c r="K23" s="13"/>
-      <c r="L23" s="13"/>
-      <c r="M23" s="13"/>
-      <c r="N23" s="13"/>
-      <c r="O23" s="13"/>
-      <c r="P23" s="13"/>
-    </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.2">
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A24" s="5" t="s">
         <v>22</v>
       </c>
@@ -1650,13 +1538,8 @@
       <c r="I24" s="13"/>
       <c r="J24" s="13"/>
       <c r="K24" s="13"/>
-      <c r="L24" s="13"/>
-      <c r="M24" s="13"/>
-      <c r="N24" s="13"/>
-      <c r="O24" s="13"/>
-      <c r="P24" s="13"/>
-    </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.2">
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A25" s="5" t="s">
         <v>17</v>
       </c>
@@ -1674,13 +1557,8 @@
       <c r="I25" s="13"/>
       <c r="J25" s="13"/>
       <c r="K25" s="13"/>
-      <c r="L25" s="13"/>
-      <c r="M25" s="13"/>
-      <c r="N25" s="13"/>
-      <c r="O25" s="13"/>
-      <c r="P25" s="13"/>
-    </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.2">
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A26" s="5" t="s">
         <v>21</v>
       </c>
@@ -1696,13 +1574,8 @@
       <c r="I26" s="13"/>
       <c r="J26" s="13"/>
       <c r="K26" s="13"/>
-      <c r="L26" s="13"/>
-      <c r="M26" s="13"/>
-      <c r="N26" s="13"/>
-      <c r="O26" s="13"/>
-      <c r="P26" s="13"/>
-    </row>
-    <row r="27" spans="1:16" x14ac:dyDescent="0.2">
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A27" s="5" t="s">
         <v>20</v>
       </c>
@@ -1718,13 +1591,8 @@
       <c r="I27" s="13"/>
       <c r="J27" s="13"/>
       <c r="K27" s="13"/>
-      <c r="L27" s="13"/>
-      <c r="M27" s="13"/>
-      <c r="N27" s="13"/>
-      <c r="O27" s="13"/>
-      <c r="P27" s="13"/>
-    </row>
-    <row r="28" spans="1:16" x14ac:dyDescent="0.2">
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A28" s="5" t="s">
         <v>19</v>
       </c>
@@ -1740,13 +1608,8 @@
       <c r="I28" s="13"/>
       <c r="J28" s="13"/>
       <c r="K28" s="13"/>
-      <c r="L28" s="13"/>
-      <c r="M28" s="13"/>
-      <c r="N28" s="13"/>
-      <c r="O28" s="13"/>
-      <c r="P28" s="13"/>
-    </row>
-    <row r="29" spans="1:16" x14ac:dyDescent="0.2">
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A29" s="5" t="s">
         <v>16</v>
       </c>
@@ -1764,13 +1627,8 @@
       <c r="I29" s="13"/>
       <c r="J29" s="13"/>
       <c r="K29" s="13"/>
-      <c r="L29" s="13"/>
-      <c r="M29" s="13"/>
-      <c r="N29" s="13"/>
-      <c r="O29" s="13"/>
-      <c r="P29" s="13"/>
-    </row>
-    <row r="30" spans="1:16" x14ac:dyDescent="0.2">
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A30" s="5" t="s">
         <v>15</v>
       </c>
@@ -1788,13 +1646,8 @@
       <c r="I30" s="13"/>
       <c r="J30" s="13"/>
       <c r="K30" s="13"/>
-      <c r="L30" s="13"/>
-      <c r="M30" s="13"/>
-      <c r="N30" s="13"/>
-      <c r="O30" s="13"/>
-      <c r="P30" s="13"/>
-    </row>
-    <row r="31" spans="1:16" x14ac:dyDescent="0.2">
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A31" s="5" t="s">
         <v>14</v>
       </c>
@@ -1812,13 +1665,8 @@
       <c r="I31" s="13"/>
       <c r="J31" s="13"/>
       <c r="K31" s="13"/>
-      <c r="L31" s="13"/>
-      <c r="M31" s="13"/>
-      <c r="N31" s="13"/>
-      <c r="O31" s="13"/>
-      <c r="P31" s="13"/>
-    </row>
-    <row r="32" spans="1:16" x14ac:dyDescent="0.2">
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A32" s="5" t="s">
         <v>13</v>
       </c>
@@ -1836,13 +1684,8 @@
       <c r="I32" s="13"/>
       <c r="J32" s="13"/>
       <c r="K32" s="13"/>
-      <c r="L32" s="13"/>
-      <c r="M32" s="13"/>
-      <c r="N32" s="13"/>
-      <c r="O32" s="13"/>
-      <c r="P32" s="13"/>
-    </row>
-    <row r="33" spans="1:16" x14ac:dyDescent="0.2">
+    </row>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A33" s="5" t="s">
         <v>12</v>
       </c>
@@ -1860,13 +1703,8 @@
       <c r="I33" s="13"/>
       <c r="J33" s="13"/>
       <c r="K33" s="13"/>
-      <c r="L33" s="13"/>
-      <c r="M33" s="13"/>
-      <c r="N33" s="13"/>
-      <c r="O33" s="13"/>
-      <c r="P33" s="13"/>
-    </row>
-    <row r="34" spans="1:16" x14ac:dyDescent="0.2">
+    </row>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A34" s="5" t="s">
         <v>11</v>
       </c>
@@ -1884,13 +1722,8 @@
       <c r="I34" s="13"/>
       <c r="J34" s="13"/>
       <c r="K34" s="13"/>
-      <c r="L34" s="13"/>
-      <c r="M34" s="13"/>
-      <c r="N34" s="13"/>
-      <c r="O34" s="13"/>
-      <c r="P34" s="13"/>
-    </row>
-    <row r="35" spans="1:16" x14ac:dyDescent="0.2">
+    </row>
+    <row r="35" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A35" s="5" t="s">
         <v>10</v>
       </c>
@@ -1908,13 +1741,8 @@
       <c r="I35" s="13"/>
       <c r="J35" s="13"/>
       <c r="K35" s="13"/>
-      <c r="L35" s="13"/>
-      <c r="M35" s="13"/>
-      <c r="N35" s="13"/>
-      <c r="O35" s="13"/>
-      <c r="P35" s="13"/>
-    </row>
-    <row r="36" spans="1:16" x14ac:dyDescent="0.2">
+    </row>
+    <row r="36" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A36" s="5" t="s">
         <v>9</v>
       </c>
@@ -1932,13 +1760,8 @@
       <c r="I36" s="13"/>
       <c r="J36" s="13"/>
       <c r="K36" s="13"/>
-      <c r="L36" s="13"/>
-      <c r="M36" s="13"/>
-      <c r="N36" s="13"/>
-      <c r="O36" s="13"/>
-      <c r="P36" s="13"/>
-    </row>
-    <row r="37" spans="1:16" x14ac:dyDescent="0.2">
+    </row>
+    <row r="37" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A37" s="5" t="s">
         <v>8</v>
       </c>
@@ -1956,13 +1779,8 @@
       <c r="I37" s="13"/>
       <c r="J37" s="13"/>
       <c r="K37" s="13"/>
-      <c r="L37" s="13"/>
-      <c r="M37" s="13"/>
-      <c r="N37" s="13"/>
-      <c r="O37" s="13"/>
-      <c r="P37" s="13"/>
-    </row>
-    <row r="38" spans="1:16" x14ac:dyDescent="0.2">
+    </row>
+    <row r="38" spans="1:11" x14ac:dyDescent="0.2">
       <c r="C38" s="6"/>
       <c r="D38" s="6"/>
       <c r="E38" s="7"/>
@@ -1972,12 +1790,9 @@
       <c r="I38" s="7"/>
       <c r="J38" s="7"/>
       <c r="K38" s="7"/>
-      <c r="L38" s="7"/>
-      <c r="M38" s="7"/>
-      <c r="N38" s="7"/>
     </row>
   </sheetData>
-  <sortState ref="A2:P37">
+  <sortState ref="A2:K37">
     <sortCondition ref="A2:A37"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1990,10 +1805,10 @@
   <sheetPr>
     <tabColor theme="8" tint="-0.249977111117893"/>
   </sheetPr>
-  <dimension ref="A1:X38"/>
+  <dimension ref="A1:S38"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K1" sqref="K1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2001,10 +1816,10 @@
     <col min="1" max="1" width="56.5" style="5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="10.83203125" style="5"/>
     <col min="3" max="4" width="10.83203125" style="1"/>
-    <col min="17" max="17" width="10.83203125" style="1"/>
+    <col min="12" max="12" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>3</v>
       </c>
@@ -2038,31 +1853,16 @@
       <c r="K1" s="2">
         <v>2025</v>
       </c>
-      <c r="L1" s="2">
-        <v>2026</v>
-      </c>
-      <c r="M1" s="2">
-        <v>2027</v>
-      </c>
-      <c r="N1" s="2">
-        <v>2028</v>
-      </c>
-      <c r="O1" s="2">
-        <v>2029</v>
-      </c>
-      <c r="P1" s="2">
-        <v>2030</v>
-      </c>
+      <c r="L1" s="2"/>
+      <c r="M1" s="2"/>
+      <c r="N1" s="2"/>
+      <c r="O1" s="2"/>
+      <c r="P1" s="2"/>
       <c r="Q1" s="2"/>
       <c r="R1" s="2"/>
       <c r="S1" s="2"/>
-      <c r="T1" s="2"/>
-      <c r="U1" s="2"/>
-      <c r="V1" s="2"/>
-      <c r="W1" s="2"/>
-      <c r="X1" s="2"/>
-    </row>
-    <row r="2" spans="1:24" x14ac:dyDescent="0.2">
+    </row>
+    <row r="2" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A2" s="5" t="s">
         <v>34</v>
       </c>
@@ -2078,13 +1878,8 @@
       <c r="I2" s="16"/>
       <c r="J2" s="16"/>
       <c r="K2" s="16"/>
-      <c r="L2" s="16"/>
-      <c r="M2" s="16"/>
-      <c r="N2" s="16"/>
-      <c r="O2" s="16"/>
-      <c r="P2" s="16"/>
-    </row>
-    <row r="3" spans="1:24" x14ac:dyDescent="0.2">
+    </row>
+    <row r="3" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A3" s="5" t="s">
         <v>33</v>
       </c>
@@ -2100,13 +1895,8 @@
       <c r="I3" s="16"/>
       <c r="J3" s="16"/>
       <c r="K3" s="16"/>
-      <c r="L3" s="16"/>
-      <c r="M3" s="16"/>
-      <c r="N3" s="16"/>
-      <c r="O3" s="16"/>
-      <c r="P3" s="16"/>
-    </row>
-    <row r="4" spans="1:24" x14ac:dyDescent="0.2">
+    </row>
+    <row r="4" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A4" s="5" t="s">
         <v>32</v>
       </c>
@@ -2122,13 +1912,8 @@
       <c r="I4" s="16"/>
       <c r="J4" s="16"/>
       <c r="K4" s="16"/>
-      <c r="L4" s="16"/>
-      <c r="M4" s="16"/>
-      <c r="N4" s="16"/>
-      <c r="O4" s="16"/>
-      <c r="P4" s="16"/>
-    </row>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.2">
+    </row>
+    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A5" s="5" t="s">
         <v>31</v>
       </c>
@@ -2144,13 +1929,8 @@
       <c r="I5" s="16"/>
       <c r="J5" s="16"/>
       <c r="K5" s="16"/>
-      <c r="L5" s="16"/>
-      <c r="M5" s="16"/>
-      <c r="N5" s="16"/>
-      <c r="O5" s="16"/>
-      <c r="P5" s="16"/>
-    </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.2">
+    </row>
+    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A6" s="5" t="s">
         <v>30</v>
       </c>
@@ -2166,13 +1946,8 @@
       <c r="I6" s="16"/>
       <c r="J6" s="16"/>
       <c r="K6" s="16"/>
-      <c r="L6" s="16"/>
-      <c r="M6" s="16"/>
-      <c r="N6" s="16"/>
-      <c r="O6" s="16"/>
-      <c r="P6" s="16"/>
-    </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.2">
+    </row>
+    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A7" s="5" t="s">
         <v>29</v>
       </c>
@@ -2188,13 +1963,8 @@
       <c r="I7" s="16"/>
       <c r="J7" s="16"/>
       <c r="K7" s="16"/>
-      <c r="L7" s="16"/>
-      <c r="M7" s="16"/>
-      <c r="N7" s="16"/>
-      <c r="O7" s="16"/>
-      <c r="P7" s="16"/>
-    </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.2">
+    </row>
+    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A8" s="5" t="s">
         <v>28</v>
       </c>
@@ -2210,13 +1980,8 @@
       <c r="I8" s="16"/>
       <c r="J8" s="16"/>
       <c r="K8" s="16"/>
-      <c r="L8" s="16"/>
-      <c r="M8" s="16"/>
-      <c r="N8" s="16"/>
-      <c r="O8" s="16"/>
-      <c r="P8" s="16"/>
-    </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.2">
+    </row>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A9" s="5" t="s">
         <v>27</v>
       </c>
@@ -2232,13 +1997,8 @@
       <c r="I9" s="16"/>
       <c r="J9" s="16"/>
       <c r="K9" s="16"/>
-      <c r="L9" s="16"/>
-      <c r="M9" s="16"/>
-      <c r="N9" s="16"/>
-      <c r="O9" s="16"/>
-      <c r="P9" s="16"/>
-    </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A10" s="14" t="s">
         <v>45</v>
       </c>
@@ -2254,13 +2014,8 @@
       <c r="I10" s="16"/>
       <c r="J10" s="16"/>
       <c r="K10" s="16"/>
-      <c r="L10" s="16"/>
-      <c r="M10" s="16"/>
-      <c r="N10" s="16"/>
-      <c r="O10" s="16"/>
-      <c r="P10" s="16"/>
-    </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.2">
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A11" s="14" t="s">
         <v>46</v>
       </c>
@@ -2276,13 +2031,8 @@
       <c r="I11" s="16"/>
       <c r="J11" s="16"/>
       <c r="K11" s="16"/>
-      <c r="L11" s="16"/>
-      <c r="M11" s="16"/>
-      <c r="N11" s="16"/>
-      <c r="O11" s="16"/>
-      <c r="P11" s="16"/>
-    </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.2">
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A12" s="14" t="s">
         <v>47</v>
       </c>
@@ -2298,13 +2048,8 @@
       <c r="I12" s="16"/>
       <c r="J12" s="16"/>
       <c r="K12" s="16"/>
-      <c r="L12" s="16"/>
-      <c r="M12" s="16"/>
-      <c r="N12" s="16"/>
-      <c r="O12" s="16"/>
-      <c r="P12" s="16"/>
-    </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.2">
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A13" s="14" t="s">
         <v>48</v>
       </c>
@@ -2320,13 +2065,8 @@
       <c r="I13" s="16"/>
       <c r="J13" s="16"/>
       <c r="K13" s="16"/>
-      <c r="L13" s="16"/>
-      <c r="M13" s="16"/>
-      <c r="N13" s="16"/>
-      <c r="O13" s="16"/>
-      <c r="P13" s="16"/>
-    </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.2">
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A14" s="5" t="s">
         <v>44</v>
       </c>
@@ -2342,13 +2082,8 @@
       <c r="I14" s="16"/>
       <c r="J14" s="16"/>
       <c r="K14" s="16"/>
-      <c r="L14" s="16"/>
-      <c r="M14" s="16"/>
-      <c r="N14" s="16"/>
-      <c r="O14" s="16"/>
-      <c r="P14" s="16"/>
-    </row>
-    <row r="15" spans="1:24" x14ac:dyDescent="0.2">
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A15" s="5" t="s">
         <v>49</v>
       </c>
@@ -2364,13 +2099,8 @@
       <c r="I15" s="16"/>
       <c r="J15" s="16"/>
       <c r="K15" s="16"/>
-      <c r="L15" s="16"/>
-      <c r="M15" s="16"/>
-      <c r="N15" s="16"/>
-      <c r="O15" s="16"/>
-      <c r="P15" s="16"/>
-    </row>
-    <row r="16" spans="1:24" x14ac:dyDescent="0.2">
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A16" s="5" t="s">
         <v>26</v>
       </c>
@@ -2386,13 +2116,8 @@
       <c r="I16" s="16"/>
       <c r="J16" s="16"/>
       <c r="K16" s="16"/>
-      <c r="L16" s="16"/>
-      <c r="M16" s="16"/>
-      <c r="N16" s="16"/>
-      <c r="O16" s="16"/>
-      <c r="P16" s="16"/>
-    </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.2">
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A17" s="5" t="s">
         <v>25</v>
       </c>
@@ -2408,13 +2133,8 @@
       <c r="I17" s="16"/>
       <c r="J17" s="16"/>
       <c r="K17" s="16"/>
-      <c r="L17" s="16"/>
-      <c r="M17" s="16"/>
-      <c r="N17" s="16"/>
-      <c r="O17" s="16"/>
-      <c r="P17" s="16"/>
-    </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.2">
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A18" s="5" t="s">
         <v>7</v>
       </c>
@@ -2430,13 +2150,8 @@
       <c r="I18" s="16"/>
       <c r="J18" s="16"/>
       <c r="K18" s="16"/>
-      <c r="L18" s="16"/>
-      <c r="M18" s="16"/>
-      <c r="N18" s="16"/>
-      <c r="O18" s="16"/>
-      <c r="P18" s="16"/>
-    </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.2">
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A19" s="5" t="s">
         <v>6</v>
       </c>
@@ -2452,13 +2167,8 @@
       <c r="I19" s="16"/>
       <c r="J19" s="16"/>
       <c r="K19" s="16"/>
-      <c r="L19" s="16"/>
-      <c r="M19" s="16"/>
-      <c r="N19" s="16"/>
-      <c r="O19" s="16"/>
-      <c r="P19" s="16"/>
-    </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.2">
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A20" s="5" t="s">
         <v>4</v>
       </c>
@@ -2474,13 +2184,8 @@
       <c r="I20" s="16"/>
       <c r="J20" s="16"/>
       <c r="K20" s="16"/>
-      <c r="L20" s="16"/>
-      <c r="M20" s="16"/>
-      <c r="N20" s="16"/>
-      <c r="O20" s="16"/>
-      <c r="P20" s="16"/>
-    </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.2">
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A21" s="5" t="s">
         <v>18</v>
       </c>
@@ -2496,13 +2201,8 @@
       <c r="I21" s="16"/>
       <c r="J21" s="16"/>
       <c r="K21" s="16"/>
-      <c r="L21" s="16"/>
-      <c r="M21" s="16"/>
-      <c r="N21" s="16"/>
-      <c r="O21" s="16"/>
-      <c r="P21" s="16"/>
-    </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.2">
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A22" s="5" t="s">
         <v>24</v>
       </c>
@@ -2518,13 +2218,8 @@
       <c r="I22" s="16"/>
       <c r="J22" s="16"/>
       <c r="K22" s="16"/>
-      <c r="L22" s="16"/>
-      <c r="M22" s="16"/>
-      <c r="N22" s="16"/>
-      <c r="O22" s="16"/>
-      <c r="P22" s="16"/>
-    </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.2">
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A23" s="5" t="s">
         <v>23</v>
       </c>
@@ -2540,13 +2235,8 @@
       <c r="I23" s="16"/>
       <c r="J23" s="16"/>
       <c r="K23" s="16"/>
-      <c r="L23" s="16"/>
-      <c r="M23" s="16"/>
-      <c r="N23" s="16"/>
-      <c r="O23" s="16"/>
-      <c r="P23" s="16"/>
-    </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.2">
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A24" s="5" t="s">
         <v>22</v>
       </c>
@@ -2562,13 +2252,8 @@
       <c r="I24" s="16"/>
       <c r="J24" s="16"/>
       <c r="K24" s="16"/>
-      <c r="L24" s="16"/>
-      <c r="M24" s="16"/>
-      <c r="N24" s="16"/>
-      <c r="O24" s="16"/>
-      <c r="P24" s="16"/>
-    </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.2">
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A25" s="5" t="s">
         <v>17</v>
       </c>
@@ -2584,13 +2269,8 @@
       <c r="I25" s="16"/>
       <c r="J25" s="16"/>
       <c r="K25" s="16"/>
-      <c r="L25" s="16"/>
-      <c r="M25" s="16"/>
-      <c r="N25" s="16"/>
-      <c r="O25" s="16"/>
-      <c r="P25" s="16"/>
-    </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.2">
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A26" s="5" t="s">
         <v>21</v>
       </c>
@@ -2606,13 +2286,8 @@
       <c r="I26" s="16"/>
       <c r="J26" s="16"/>
       <c r="K26" s="16"/>
-      <c r="L26" s="16"/>
-      <c r="M26" s="16"/>
-      <c r="N26" s="16"/>
-      <c r="O26" s="16"/>
-      <c r="P26" s="16"/>
-    </row>
-    <row r="27" spans="1:16" x14ac:dyDescent="0.2">
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A27" s="5" t="s">
         <v>20</v>
       </c>
@@ -2628,13 +2303,8 @@
       <c r="I27" s="16"/>
       <c r="J27" s="16"/>
       <c r="K27" s="16"/>
-      <c r="L27" s="16"/>
-      <c r="M27" s="16"/>
-      <c r="N27" s="16"/>
-      <c r="O27" s="16"/>
-      <c r="P27" s="16"/>
-    </row>
-    <row r="28" spans="1:16" x14ac:dyDescent="0.2">
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A28" s="5" t="s">
         <v>19</v>
       </c>
@@ -2650,13 +2320,8 @@
       <c r="I28" s="16"/>
       <c r="J28" s="16"/>
       <c r="K28" s="16"/>
-      <c r="L28" s="16"/>
-      <c r="M28" s="16"/>
-      <c r="N28" s="16"/>
-      <c r="O28" s="16"/>
-      <c r="P28" s="16"/>
-    </row>
-    <row r="29" spans="1:16" x14ac:dyDescent="0.2">
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A29" s="5" t="s">
         <v>16</v>
       </c>
@@ -2672,13 +2337,8 @@
       <c r="I29" s="16"/>
       <c r="J29" s="16"/>
       <c r="K29" s="16"/>
-      <c r="L29" s="16"/>
-      <c r="M29" s="16"/>
-      <c r="N29" s="16"/>
-      <c r="O29" s="16"/>
-      <c r="P29" s="16"/>
-    </row>
-    <row r="30" spans="1:16" x14ac:dyDescent="0.2">
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A30" s="5" t="s">
         <v>15</v>
       </c>
@@ -2694,13 +2354,8 @@
       <c r="I30" s="16"/>
       <c r="J30" s="16"/>
       <c r="K30" s="16"/>
-      <c r="L30" s="16"/>
-      <c r="M30" s="16"/>
-      <c r="N30" s="16"/>
-      <c r="O30" s="16"/>
-      <c r="P30" s="16"/>
-    </row>
-    <row r="31" spans="1:16" x14ac:dyDescent="0.2">
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A31" s="5" t="s">
         <v>14</v>
       </c>
@@ -2716,13 +2371,8 @@
       <c r="I31" s="16"/>
       <c r="J31" s="16"/>
       <c r="K31" s="16"/>
-      <c r="L31" s="16"/>
-      <c r="M31" s="16"/>
-      <c r="N31" s="16"/>
-      <c r="O31" s="16"/>
-      <c r="P31" s="16"/>
-    </row>
-    <row r="32" spans="1:16" x14ac:dyDescent="0.2">
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A32" s="5" t="s">
         <v>13</v>
       </c>
@@ -2738,13 +2388,8 @@
       <c r="I32" s="16"/>
       <c r="J32" s="16"/>
       <c r="K32" s="16"/>
-      <c r="L32" s="16"/>
-      <c r="M32" s="16"/>
-      <c r="N32" s="16"/>
-      <c r="O32" s="16"/>
-      <c r="P32" s="16"/>
-    </row>
-    <row r="33" spans="1:16" x14ac:dyDescent="0.2">
+    </row>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A33" s="5" t="s">
         <v>12</v>
       </c>
@@ -2760,13 +2405,8 @@
       <c r="I33" s="16"/>
       <c r="J33" s="16"/>
       <c r="K33" s="16"/>
-      <c r="L33" s="16"/>
-      <c r="M33" s="16"/>
-      <c r="N33" s="16"/>
-      <c r="O33" s="16"/>
-      <c r="P33" s="16"/>
-    </row>
-    <row r="34" spans="1:16" x14ac:dyDescent="0.2">
+    </row>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A34" s="5" t="s">
         <v>11</v>
       </c>
@@ -2782,13 +2422,8 @@
       <c r="I34" s="16"/>
       <c r="J34" s="16"/>
       <c r="K34" s="16"/>
-      <c r="L34" s="16"/>
-      <c r="M34" s="16"/>
-      <c r="N34" s="16"/>
-      <c r="O34" s="16"/>
-      <c r="P34" s="16"/>
-    </row>
-    <row r="35" spans="1:16" x14ac:dyDescent="0.2">
+    </row>
+    <row r="35" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A35" s="5" t="s">
         <v>10</v>
       </c>
@@ -2804,13 +2439,8 @@
       <c r="I35" s="16"/>
       <c r="J35" s="16"/>
       <c r="K35" s="16"/>
-      <c r="L35" s="16"/>
-      <c r="M35" s="16"/>
-      <c r="N35" s="16"/>
-      <c r="O35" s="16"/>
-      <c r="P35" s="16"/>
-    </row>
-    <row r="36" spans="1:16" x14ac:dyDescent="0.2">
+    </row>
+    <row r="36" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A36" s="5" t="s">
         <v>9</v>
       </c>
@@ -2826,13 +2456,8 @@
       <c r="I36" s="16"/>
       <c r="J36" s="16"/>
       <c r="K36" s="16"/>
-      <c r="L36" s="16"/>
-      <c r="M36" s="16"/>
-      <c r="N36" s="16"/>
-      <c r="O36" s="16"/>
-      <c r="P36" s="16"/>
-    </row>
-    <row r="37" spans="1:16" x14ac:dyDescent="0.2">
+    </row>
+    <row r="37" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A37" s="5" t="s">
         <v>8</v>
       </c>
@@ -2848,13 +2473,8 @@
       <c r="I37" s="16"/>
       <c r="J37" s="16"/>
       <c r="K37" s="16"/>
-      <c r="L37" s="16"/>
-      <c r="M37" s="16"/>
-      <c r="N37" s="16"/>
-      <c r="O37" s="16"/>
-      <c r="P37" s="16"/>
-    </row>
-    <row r="38" spans="1:16" x14ac:dyDescent="0.2">
+    </row>
+    <row r="38" spans="1:11" x14ac:dyDescent="0.2">
       <c r="C38" s="6"/>
       <c r="D38" s="6"/>
       <c r="E38" s="7"/>
@@ -2864,12 +2484,9 @@
       <c r="I38" s="7"/>
       <c r="J38" s="7"/>
       <c r="K38" s="7"/>
-      <c r="L38" s="7"/>
-      <c r="M38" s="7"/>
-      <c r="N38" s="7"/>
     </row>
   </sheetData>
-  <sortState ref="A2:P37">
+  <sortState ref="A2:K37">
     <sortCondition ref="A2:A37"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2884,8 +2501,8 @@
   </sheetPr>
   <dimension ref="A1:G2"/>
   <sheetViews>
-    <sheetView zoomScale="150" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+    <sheetView tabSelected="1" zoomScale="150" workbookViewId="0">
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2934,8 +2551,8 @@
       <c r="E2" s="11">
         <v>10000000</v>
       </c>
-      <c r="F2" s="8">
-        <v>1</v>
+      <c r="F2" s="8" t="s">
+        <v>51</v>
       </c>
       <c r="G2" s="9" t="s">
         <v>42</v>

--- a/applications/default/data/national/default_options.xlsx
+++ b/applications/default/data/national/default_options.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/samhainsworth/Desktop/github_projects/Nutrition/applications/default/data/national/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{ECD692AD-1532-F445-8C89-3EC7DF3F0A9C}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{E16A01F7-753E-8444-847F-97F935C2A588}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="15540" activeTab="3" xr2:uid="{3C28A406-3B38-3B44-81A1-855DF4E1C8BA}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="12800" windowHeight="15540" xr2:uid="{3C28A406-3B38-3B44-81A1-855DF4E1C8BA}"/>
   </bookViews>
   <sheets>
     <sheet name="Programs to include" sheetId="3" r:id="rId1"/>
@@ -55,7 +55,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="208" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="52">
   <si>
     <t>Coverage</t>
   </si>
@@ -174,9 +174,6 @@
     <t>additional funds</t>
   </si>
   <si>
-    <t>thrive</t>
-  </si>
-  <si>
     <t>start year</t>
   </si>
   <si>
@@ -211,6 +208,9 @@
   </si>
   <si>
     <t>1,2</t>
+  </si>
+  <si>
+    <t>thrive, child_deaths</t>
   </si>
 </sst>
 </file>
@@ -807,8 +807,8 @@
   </sheetPr>
   <dimension ref="A1:B37"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -848,7 +848,9 @@
       <c r="A5" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="B5" s="4"/>
+      <c r="B5" s="4" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A6" s="5" t="s">
@@ -860,7 +862,9 @@
       <c r="A7" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="B7" s="4"/>
+      <c r="B7" s="4" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A8" s="5" t="s">
@@ -876,37 +880,39 @@
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A10" s="14" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B10" s="4"/>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A11" s="14" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B11" s="4"/>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A12" s="14" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B12" s="4"/>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A13" s="14" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B13" s="4"/>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A14" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="B14" s="4"/>
+        <v>43</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A15" s="5" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B15" s="4"/>
     </row>
@@ -914,7 +920,9 @@
       <c r="A16" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="B16" s="4"/>
+      <c r="B16" s="4" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A17" s="5" t="s">
@@ -1012,41 +1020,31 @@
       <c r="A31" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="B31" s="4" t="s">
-        <v>5</v>
-      </c>
+      <c r="B31" s="4"/>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A32" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="B32" s="4" t="s">
-        <v>5</v>
-      </c>
+      <c r="B32" s="4"/>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A33" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="B33" s="4" t="s">
-        <v>5</v>
-      </c>
+      <c r="B33" s="4"/>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A34" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="B34" s="4" t="s">
-        <v>5</v>
-      </c>
+      <c r="B34" s="4"/>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A35" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="B35" s="4" t="s">
-        <v>5</v>
-      </c>
+      <c r="B35" s="4"/>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A36" s="5" t="s">
@@ -1060,9 +1058,7 @@
       <c r="A37" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="B37" s="4" t="s">
-        <v>5</v>
-      </c>
+      <c r="B37" s="4"/>
     </row>
   </sheetData>
   <sortState ref="A2:B37">
@@ -1081,7 +1077,7 @@
   <dimension ref="A1:AE38"/>
   <sheetViews>
     <sheetView zoomScaleNormal="170" workbookViewId="0">
-      <selection activeCell="K8" sqref="K8"/>
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1284,7 +1280,7 @@
     </row>
     <row r="10" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A10" s="14" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>0</v>
@@ -1301,7 +1297,7 @@
     </row>
     <row r="11" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A11" s="14" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B11" s="5" t="s">
         <v>0</v>
@@ -1318,7 +1314,7 @@
     </row>
     <row r="12" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A12" s="14" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>0</v>
@@ -1335,7 +1331,7 @@
     </row>
     <row r="13" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A13" s="14" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>0</v>
@@ -1352,13 +1348,15 @@
     </row>
     <row r="14" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A14" s="5" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B14" s="5" t="s">
         <v>0</v>
       </c>
       <c r="C14" s="13"/>
-      <c r="D14" s="13"/>
+      <c r="D14" s="13">
+        <v>0.95</v>
+      </c>
       <c r="E14" s="13"/>
       <c r="F14" s="13"/>
       <c r="G14" s="13"/>
@@ -1369,7 +1367,7 @@
     </row>
     <row r="15" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A15" s="5" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B15" s="5" t="s">
         <v>0</v>
@@ -1547,9 +1545,7 @@
         <v>0</v>
       </c>
       <c r="C25" s="13"/>
-      <c r="D25" s="13">
-        <v>0.95</v>
-      </c>
+      <c r="D25" s="13"/>
       <c r="E25" s="13"/>
       <c r="F25" s="13"/>
       <c r="G25" s="13"/>
@@ -1655,9 +1651,7 @@
         <v>0</v>
       </c>
       <c r="C31" s="13"/>
-      <c r="D31" s="13">
-        <v>0.95</v>
-      </c>
+      <c r="D31" s="13"/>
       <c r="E31" s="13"/>
       <c r="F31" s="13"/>
       <c r="G31" s="13"/>
@@ -1674,9 +1668,7 @@
         <v>0</v>
       </c>
       <c r="C32" s="13"/>
-      <c r="D32" s="13">
-        <v>0.95</v>
-      </c>
+      <c r="D32" s="13"/>
       <c r="E32" s="13"/>
       <c r="F32" s="13"/>
       <c r="G32" s="13"/>
@@ -1693,9 +1685,7 @@
         <v>0</v>
       </c>
       <c r="C33" s="13"/>
-      <c r="D33" s="13">
-        <v>0.95</v>
-      </c>
+      <c r="D33" s="13"/>
       <c r="E33" s="13"/>
       <c r="F33" s="13"/>
       <c r="G33" s="13"/>
@@ -1712,9 +1702,7 @@
         <v>0</v>
       </c>
       <c r="C34" s="13"/>
-      <c r="D34" s="13">
-        <v>0.95</v>
-      </c>
+      <c r="D34" s="13"/>
       <c r="E34" s="13"/>
       <c r="F34" s="13"/>
       <c r="G34" s="13"/>
@@ -1731,9 +1719,7 @@
         <v>0</v>
       </c>
       <c r="C35" s="13"/>
-      <c r="D35" s="13">
-        <v>0.95</v>
-      </c>
+      <c r="D35" s="13"/>
       <c r="E35" s="13"/>
       <c r="F35" s="13"/>
       <c r="G35" s="13"/>
@@ -1750,9 +1736,7 @@
         <v>0</v>
       </c>
       <c r="C36" s="13"/>
-      <c r="D36" s="13">
-        <v>0.95</v>
-      </c>
+      <c r="D36" s="13"/>
       <c r="E36" s="13"/>
       <c r="F36" s="13"/>
       <c r="G36" s="13"/>
@@ -1769,9 +1753,7 @@
         <v>0</v>
       </c>
       <c r="C37" s="13"/>
-      <c r="D37" s="13">
-        <v>0.95</v>
-      </c>
+      <c r="D37" s="13"/>
       <c r="E37" s="13"/>
       <c r="F37" s="13"/>
       <c r="G37" s="13"/>
@@ -2000,7 +1982,7 @@
     </row>
     <row r="10" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A10" s="14" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>1</v>
@@ -2017,7 +1999,7 @@
     </row>
     <row r="11" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A11" s="14" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B11" s="5" t="s">
         <v>1</v>
@@ -2034,7 +2016,7 @@
     </row>
     <row r="12" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A12" s="14" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>1</v>
@@ -2051,7 +2033,7 @@
     </row>
     <row r="13" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A13" s="14" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>1</v>
@@ -2068,7 +2050,7 @@
     </row>
     <row r="14" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A14" s="5" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B14" s="5" t="s">
         <v>1</v>
@@ -2085,7 +2067,7 @@
     </row>
     <row r="15" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A15" s="5" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B15" s="5" t="s">
         <v>1</v>
@@ -2501,8 +2483,8 @@
   </sheetPr>
   <dimension ref="A1:G2"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="150" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+    <sheetView zoomScale="150" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2514,10 +2496,10 @@
   <sheetData>
     <row r="1" spans="1:7" ht="27" x14ac:dyDescent="0.2">
       <c r="A1" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="B1" s="10" t="s">
         <v>40</v>
-      </c>
-      <c r="B1" s="10" t="s">
-        <v>41</v>
       </c>
       <c r="C1" s="10" t="s">
         <v>36</v>
@@ -2529,10 +2511,10 @@
         <v>38</v>
       </c>
       <c r="F1" s="15" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G1" s="12" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
@@ -2543,19 +2525,19 @@
         <v>2025</v>
       </c>
       <c r="C2" s="8" t="s">
-        <v>39</v>
+        <v>51</v>
       </c>
       <c r="D2" s="9" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E2" s="11">
         <v>10000000</v>
       </c>
       <c r="F2" s="8" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G2" s="9" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
   </sheetData>

--- a/applications/default/data/national/default_options.xlsx
+++ b/applications/default/data/national/default_options.xlsx
@@ -1,22 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10523"/>
-  <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/samhainsworth/Desktop/github_projects/Nutrition/applications/default/data/national/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{E16A01F7-753E-8444-847F-97F935C2A588}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="7" rupBuild="9302"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="12800" windowHeight="15540" xr2:uid="{3C28A406-3B38-3B44-81A1-855DF4E1C8BA}"/>
+    <workbookView xWindow="0" yWindow="465" windowWidth="12795" windowHeight="15540" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Programs to include" sheetId="3" r:id="rId1"/>
     <sheet name="Coverage scenario" sheetId="12" r:id="rId2"/>
     <sheet name="Budget scenario" sheetId="11" r:id="rId3"/>
-    <sheet name="Optimisation options" sheetId="13" r:id="rId4"/>
+    <sheet name="Optimization options" sheetId="13" r:id="rId4"/>
   </sheets>
   <externalReferences>
     <externalReference r:id="rId5"/>
@@ -216,7 +210,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="3">
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="0.0%"/>
@@ -346,7 +340,7 @@
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="1" xr:uid="{84516AC3-0F6C-C446-9516-6FDA12772B8D}"/>
+    <cellStyle name="Normal 2" xfId="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -548,7 +542,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -600,7 +594,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -794,31 +788,31 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9848D68B-8BFC-1547-A075-485AE6A3F40F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FF007600"/>
   </sheetPr>
   <dimension ref="A1:B37"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C45" sqref="C45"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="11.5" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="56" style="5" customWidth="1"/>
-    <col min="2" max="2" width="15.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="16384" width="11.5" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
         <v>3</v>
       </c>
@@ -826,25 +820,25 @@
         <v>35</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" s="5" t="s">
         <v>34</v>
       </c>
       <c r="B2" s="4"/>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" s="5" t="s">
         <v>33</v>
       </c>
       <c r="B3" s="4"/>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" s="5" t="s">
         <v>32</v>
       </c>
       <c r="B4" s="4"/>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" s="5" t="s">
         <v>31</v>
       </c>
@@ -852,13 +846,13 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" s="5" t="s">
         <v>30</v>
       </c>
       <c r="B6" s="4"/>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" s="5" t="s">
         <v>29</v>
       </c>
@@ -866,43 +860,43 @@
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" s="5" t="s">
         <v>28</v>
       </c>
       <c r="B8" s="4"/>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" s="5" t="s">
         <v>27</v>
       </c>
       <c r="B9" s="4"/>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10" s="14" t="s">
         <v>44</v>
       </c>
       <c r="B10" s="4"/>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11" s="14" t="s">
         <v>45</v>
       </c>
       <c r="B11" s="4"/>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A12" s="14" t="s">
         <v>46</v>
       </c>
       <c r="B12" s="4"/>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A13" s="14" t="s">
         <v>47</v>
       </c>
       <c r="B13" s="4"/>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A14" s="5" t="s">
         <v>43</v>
       </c>
@@ -910,13 +904,13 @@
         <v>5</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A15" s="5" t="s">
         <v>48</v>
       </c>
       <c r="B15" s="4"/>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A16" s="5" t="s">
         <v>26</v>
       </c>
@@ -924,13 +918,13 @@
         <v>5</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A17" s="5" t="s">
         <v>25</v>
       </c>
       <c r="B17" s="4"/>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A18" s="5" t="s">
         <v>7</v>
       </c>
@@ -938,43 +932,43 @@
         <v>5</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A19" s="5" t="s">
         <v>6</v>
       </c>
       <c r="B19" s="4"/>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A20" s="5" t="s">
         <v>4</v>
       </c>
       <c r="B20" s="4"/>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A21" s="5" t="s">
         <v>18</v>
       </c>
       <c r="B21" s="4"/>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A22" s="5" t="s">
         <v>24</v>
       </c>
       <c r="B22" s="4"/>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A23" s="5" t="s">
         <v>23</v>
       </c>
       <c r="B23" s="4"/>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A24" s="5" t="s">
         <v>22</v>
       </c>
       <c r="B24" s="4"/>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A25" s="5" t="s">
         <v>17</v>
       </c>
@@ -982,25 +976,25 @@
         <v>5</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A26" s="5" t="s">
         <v>21</v>
       </c>
       <c r="B26" s="4"/>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A27" s="5" t="s">
         <v>20</v>
       </c>
       <c r="B27" s="4"/>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A28" s="5" t="s">
         <v>19</v>
       </c>
       <c r="B28" s="4"/>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A29" s="5" t="s">
         <v>16</v>
       </c>
@@ -1008,7 +1002,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A30" s="5" t="s">
         <v>15</v>
       </c>
@@ -1016,37 +1010,37 @@
         <v>5</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A31" s="5" t="s">
         <v>14</v>
       </c>
       <c r="B31" s="4"/>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A32" s="5" t="s">
         <v>13</v>
       </c>
       <c r="B32" s="4"/>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A33" s="5" t="s">
         <v>12</v>
       </c>
       <c r="B33" s="4"/>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A34" s="5" t="s">
         <v>11</v>
       </c>
       <c r="B34" s="4"/>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A35" s="5" t="s">
         <v>10</v>
       </c>
       <c r="B35" s="4"/>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A36" s="5" t="s">
         <v>9</v>
       </c>
@@ -1054,7 +1048,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A37" s="5" t="s">
         <v>8</v>
       </c>
@@ -1070,7 +1064,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4FF98E75-2B9A-1140-998D-A6BF823A844A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="8" tint="-0.249977111117893"/>
   </sheetPr>
@@ -1080,14 +1074,14 @@
       <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="56.5" style="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.83203125" style="5"/>
-    <col min="3" max="4" width="10.83203125" style="1"/>
+    <col min="2" max="2" width="10.875" style="5"/>
+    <col min="3" max="4" width="10.875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>3</v>
       </c>
@@ -1142,7 +1136,7 @@
       <c r="AD1" s="2"/>
       <c r="AE1" s="2"/>
     </row>
-    <row r="2" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
         <v>34</v>
       </c>
@@ -1159,7 +1153,7 @@
       <c r="J2" s="13"/>
       <c r="K2" s="13"/>
     </row>
-    <row r="3" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
         <v>33</v>
       </c>
@@ -1176,7 +1170,7 @@
       <c r="J3" s="13"/>
       <c r="K3" s="13"/>
     </row>
-    <row r="4" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
         <v>32</v>
       </c>
@@ -1193,7 +1187,7 @@
       <c r="J4" s="13"/>
       <c r="K4" s="13"/>
     </row>
-    <row r="5" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
         <v>31</v>
       </c>
@@ -1210,7 +1204,7 @@
       <c r="J5" s="13"/>
       <c r="K5" s="13"/>
     </row>
-    <row r="6" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
         <v>30</v>
       </c>
@@ -1227,7 +1221,7 @@
       <c r="J6" s="13"/>
       <c r="K6" s="13"/>
     </row>
-    <row r="7" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
         <v>29</v>
       </c>
@@ -1244,7 +1238,7 @@
       <c r="J7" s="13"/>
       <c r="K7" s="13"/>
     </row>
-    <row r="8" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
         <v>28</v>
       </c>
@@ -1261,7 +1255,7 @@
       <c r="J8" s="13"/>
       <c r="K8" s="13"/>
     </row>
-    <row r="9" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
         <v>27</v>
       </c>
@@ -1278,7 +1272,7 @@
       <c r="J9" s="13"/>
       <c r="K9" s="13"/>
     </row>
-    <row r="10" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A10" s="14" t="s">
         <v>44</v>
       </c>
@@ -1295,7 +1289,7 @@
       <c r="J10" s="13"/>
       <c r="K10" s="13"/>
     </row>
-    <row r="11" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A11" s="14" t="s">
         <v>45</v>
       </c>
@@ -1312,7 +1306,7 @@
       <c r="J11" s="13"/>
       <c r="K11" s="13"/>
     </row>
-    <row r="12" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A12" s="14" t="s">
         <v>46</v>
       </c>
@@ -1329,7 +1323,7 @@
       <c r="J12" s="13"/>
       <c r="K12" s="13"/>
     </row>
-    <row r="13" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A13" s="14" t="s">
         <v>47</v>
       </c>
@@ -1346,7 +1340,7 @@
       <c r="J13" s="13"/>
       <c r="K13" s="13"/>
     </row>
-    <row r="14" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A14" s="5" t="s">
         <v>43</v>
       </c>
@@ -1365,7 +1359,7 @@
       <c r="J14" s="13"/>
       <c r="K14" s="13"/>
     </row>
-    <row r="15" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A15" s="5" t="s">
         <v>48</v>
       </c>
@@ -1382,7 +1376,7 @@
       <c r="J15" s="13"/>
       <c r="K15" s="13"/>
     </row>
-    <row r="16" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A16" s="5" t="s">
         <v>26</v>
       </c>
@@ -1399,7 +1393,7 @@
       <c r="J16" s="13"/>
       <c r="K16" s="13"/>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="5" t="s">
         <v>25</v>
       </c>
@@ -1416,7 +1410,7 @@
       <c r="J17" s="13"/>
       <c r="K17" s="13"/>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="5" t="s">
         <v>7</v>
       </c>
@@ -1435,7 +1429,7 @@
       <c r="J18" s="13"/>
       <c r="K18" s="13"/>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="5" t="s">
         <v>6</v>
       </c>
@@ -1452,7 +1446,7 @@
       <c r="J19" s="13"/>
       <c r="K19" s="13"/>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="5" t="s">
         <v>4</v>
       </c>
@@ -1469,7 +1463,7 @@
       <c r="J20" s="13"/>
       <c r="K20" s="13"/>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="5" t="s">
         <v>18</v>
       </c>
@@ -1486,7 +1480,7 @@
       <c r="J21" s="13"/>
       <c r="K21" s="13"/>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" s="5" t="s">
         <v>24</v>
       </c>
@@ -1503,7 +1497,7 @@
       <c r="J22" s="13"/>
       <c r="K22" s="13"/>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" s="5" t="s">
         <v>23</v>
       </c>
@@ -1520,7 +1514,7 @@
       <c r="J23" s="13"/>
       <c r="K23" s="13"/>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" s="5" t="s">
         <v>22</v>
       </c>
@@ -1537,7 +1531,7 @@
       <c r="J24" s="13"/>
       <c r="K24" s="13"/>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" s="5" t="s">
         <v>17</v>
       </c>
@@ -1554,7 +1548,7 @@
       <c r="J25" s="13"/>
       <c r="K25" s="13"/>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" s="5" t="s">
         <v>21</v>
       </c>
@@ -1571,7 +1565,7 @@
       <c r="J26" s="13"/>
       <c r="K26" s="13"/>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" s="5" t="s">
         <v>20</v>
       </c>
@@ -1588,7 +1582,7 @@
       <c r="J27" s="13"/>
       <c r="K27" s="13"/>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" s="5" t="s">
         <v>19</v>
       </c>
@@ -1605,7 +1599,7 @@
       <c r="J28" s="13"/>
       <c r="K28" s="13"/>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" s="5" t="s">
         <v>16</v>
       </c>
@@ -1624,7 +1618,7 @@
       <c r="J29" s="13"/>
       <c r="K29" s="13"/>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" s="5" t="s">
         <v>15</v>
       </c>
@@ -1643,7 +1637,7 @@
       <c r="J30" s="13"/>
       <c r="K30" s="13"/>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" s="5" t="s">
         <v>14</v>
       </c>
@@ -1660,7 +1654,7 @@
       <c r="J31" s="13"/>
       <c r="K31" s="13"/>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32" s="5" t="s">
         <v>13</v>
       </c>
@@ -1677,7 +1671,7 @@
       <c r="J32" s="13"/>
       <c r="K32" s="13"/>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33" s="5" t="s">
         <v>12</v>
       </c>
@@ -1694,7 +1688,7 @@
       <c r="J33" s="13"/>
       <c r="K33" s="13"/>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34" s="5" t="s">
         <v>11</v>
       </c>
@@ -1711,7 +1705,7 @@
       <c r="J34" s="13"/>
       <c r="K34" s="13"/>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35" s="5" t="s">
         <v>10</v>
       </c>
@@ -1728,7 +1722,7 @@
       <c r="J35" s="13"/>
       <c r="K35" s="13"/>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36" s="5" t="s">
         <v>9</v>
       </c>
@@ -1745,7 +1739,7 @@
       <c r="J36" s="13"/>
       <c r="K36" s="13"/>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A37" s="5" t="s">
         <v>8</v>
       </c>
@@ -1762,7 +1756,7 @@
       <c r="J37" s="13"/>
       <c r="K37" s="13"/>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
       <c r="C38" s="6"/>
       <c r="D38" s="6"/>
       <c r="E38" s="7"/>
@@ -1783,7 +1777,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CE8FFD43-0A0F-4D4C-8EFD-D178D6D096FB}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="8" tint="-0.249977111117893"/>
   </sheetPr>
@@ -1793,15 +1787,15 @@
       <selection activeCell="K1" sqref="K1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="56.5" style="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.83203125" style="5"/>
-    <col min="3" max="4" width="10.83203125" style="1"/>
-    <col min="12" max="12" width="10.83203125" style="1"/>
+    <col min="2" max="2" width="10.875" style="5"/>
+    <col min="3" max="4" width="10.875" style="1"/>
+    <col min="12" max="12" width="10.875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>3</v>
       </c>
@@ -1844,7 +1838,7 @@
       <c r="R1" s="2"/>
       <c r="S1" s="2"/>
     </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
         <v>34</v>
       </c>
@@ -1861,7 +1855,7 @@
       <c r="J2" s="16"/>
       <c r="K2" s="16"/>
     </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
         <v>33</v>
       </c>
@@ -1878,7 +1872,7 @@
       <c r="J3" s="16"/>
       <c r="K3" s="16"/>
     </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
         <v>32</v>
       </c>
@@ -1895,7 +1889,7 @@
       <c r="J4" s="16"/>
       <c r="K4" s="16"/>
     </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
         <v>31</v>
       </c>
@@ -1912,7 +1906,7 @@
       <c r="J5" s="16"/>
       <c r="K5" s="16"/>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
         <v>30</v>
       </c>
@@ -1929,7 +1923,7 @@
       <c r="J6" s="16"/>
       <c r="K6" s="16"/>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
         <v>29</v>
       </c>
@@ -1946,7 +1940,7 @@
       <c r="J7" s="16"/>
       <c r="K7" s="16"/>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
         <v>28</v>
       </c>
@@ -1963,7 +1957,7 @@
       <c r="J8" s="16"/>
       <c r="K8" s="16"/>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
         <v>27</v>
       </c>
@@ -1980,7 +1974,7 @@
       <c r="J9" s="16"/>
       <c r="K9" s="16"/>
     </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A10" s="14" t="s">
         <v>44</v>
       </c>
@@ -1997,7 +1991,7 @@
       <c r="J10" s="16"/>
       <c r="K10" s="16"/>
     </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A11" s="14" t="s">
         <v>45</v>
       </c>
@@ -2014,7 +2008,7 @@
       <c r="J11" s="16"/>
       <c r="K11" s="16"/>
     </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A12" s="14" t="s">
         <v>46</v>
       </c>
@@ -2031,7 +2025,7 @@
       <c r="J12" s="16"/>
       <c r="K12" s="16"/>
     </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A13" s="14" t="s">
         <v>47</v>
       </c>
@@ -2048,7 +2042,7 @@
       <c r="J13" s="16"/>
       <c r="K13" s="16"/>
     </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A14" s="5" t="s">
         <v>43</v>
       </c>
@@ -2065,7 +2059,7 @@
       <c r="J14" s="16"/>
       <c r="K14" s="16"/>
     </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A15" s="5" t="s">
         <v>48</v>
       </c>
@@ -2082,7 +2076,7 @@
       <c r="J15" s="16"/>
       <c r="K15" s="16"/>
     </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A16" s="5" t="s">
         <v>26</v>
       </c>
@@ -2099,7 +2093,7 @@
       <c r="J16" s="16"/>
       <c r="K16" s="16"/>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="5" t="s">
         <v>25</v>
       </c>
@@ -2116,7 +2110,7 @@
       <c r="J17" s="16"/>
       <c r="K17" s="16"/>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="5" t="s">
         <v>7</v>
       </c>
@@ -2133,7 +2127,7 @@
       <c r="J18" s="16"/>
       <c r="K18" s="16"/>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="5" t="s">
         <v>6</v>
       </c>
@@ -2150,7 +2144,7 @@
       <c r="J19" s="16"/>
       <c r="K19" s="16"/>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="5" t="s">
         <v>4</v>
       </c>
@@ -2167,7 +2161,7 @@
       <c r="J20" s="16"/>
       <c r="K20" s="16"/>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="5" t="s">
         <v>18</v>
       </c>
@@ -2184,7 +2178,7 @@
       <c r="J21" s="16"/>
       <c r="K21" s="16"/>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" s="5" t="s">
         <v>24</v>
       </c>
@@ -2201,7 +2195,7 @@
       <c r="J22" s="16"/>
       <c r="K22" s="16"/>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" s="5" t="s">
         <v>23</v>
       </c>
@@ -2218,7 +2212,7 @@
       <c r="J23" s="16"/>
       <c r="K23" s="16"/>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" s="5" t="s">
         <v>22</v>
       </c>
@@ -2235,7 +2229,7 @@
       <c r="J24" s="16"/>
       <c r="K24" s="16"/>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" s="5" t="s">
         <v>17</v>
       </c>
@@ -2252,7 +2246,7 @@
       <c r="J25" s="16"/>
       <c r="K25" s="16"/>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" s="5" t="s">
         <v>21</v>
       </c>
@@ -2269,7 +2263,7 @@
       <c r="J26" s="16"/>
       <c r="K26" s="16"/>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" s="5" t="s">
         <v>20</v>
       </c>
@@ -2286,7 +2280,7 @@
       <c r="J27" s="16"/>
       <c r="K27" s="16"/>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" s="5" t="s">
         <v>19</v>
       </c>
@@ -2303,7 +2297,7 @@
       <c r="J28" s="16"/>
       <c r="K28" s="16"/>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" s="5" t="s">
         <v>16</v>
       </c>
@@ -2320,7 +2314,7 @@
       <c r="J29" s="16"/>
       <c r="K29" s="16"/>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" s="5" t="s">
         <v>15</v>
       </c>
@@ -2337,7 +2331,7 @@
       <c r="J30" s="16"/>
       <c r="K30" s="16"/>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" s="5" t="s">
         <v>14</v>
       </c>
@@ -2354,7 +2348,7 @@
       <c r="J31" s="16"/>
       <c r="K31" s="16"/>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32" s="5" t="s">
         <v>13</v>
       </c>
@@ -2371,7 +2365,7 @@
       <c r="J32" s="16"/>
       <c r="K32" s="16"/>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33" s="5" t="s">
         <v>12</v>
       </c>
@@ -2388,7 +2382,7 @@
       <c r="J33" s="16"/>
       <c r="K33" s="16"/>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34" s="5" t="s">
         <v>11</v>
       </c>
@@ -2405,7 +2399,7 @@
       <c r="J34" s="16"/>
       <c r="K34" s="16"/>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35" s="5" t="s">
         <v>10</v>
       </c>
@@ -2422,7 +2416,7 @@
       <c r="J35" s="16"/>
       <c r="K35" s="16"/>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36" s="5" t="s">
         <v>9</v>
       </c>
@@ -2439,7 +2433,7 @@
       <c r="J36" s="16"/>
       <c r="K36" s="16"/>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A37" s="5" t="s">
         <v>8</v>
       </c>
@@ -2456,7 +2450,7 @@
       <c r="J37" s="16"/>
       <c r="K37" s="16"/>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
       <c r="C38" s="6"/>
       <c r="D38" s="6"/>
       <c r="E38" s="7"/>
@@ -2477,24 +2471,24 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{84CE95BA-2BE6-BA4F-A839-A87510FDB8B4}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FF7030A0"/>
   </sheetPr>
   <dimension ref="A1:G2"/>
   <sheetViews>
-    <sheetView zoomScale="150" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView tabSelected="1" zoomScale="150" workbookViewId="0">
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="4" max="4" width="13.83203125" customWidth="1"/>
-    <col min="5" max="5" width="14.33203125" customWidth="1"/>
+    <col min="4" max="4" width="13.875" customWidth="1"/>
+    <col min="5" max="5" width="14.375" customWidth="1"/>
     <col min="6" max="6" width="16" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="27" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A1" s="10" t="s">
         <v>39</v>
       </c>
@@ -2517,7 +2511,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="8">
         <v>2017</v>
       </c>

--- a/applications/default/data/national/default_options.xlsx
+++ b/applications/default/data/national/default_options.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="7" rupBuild="9302"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10523"/>
+  <workbookPr defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/samhainsworth/Desktop/github_projects/Nutrition/applications/default/data/national/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{6E657738-082C-FD4D-B176-991B1A67DC5B}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="465" windowWidth="12795" windowHeight="15540" activeTab="3"/>
+    <workbookView xWindow="13020" yWindow="-21140" windowWidth="19200" windowHeight="21140" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Programs to include" sheetId="3" r:id="rId1"/>
@@ -49,7 +55,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="191" uniqueCount="49">
   <si>
     <t>Coverage</t>
   </si>
@@ -63,15 +69,9 @@
     <t>Program</t>
   </si>
   <si>
-    <t>IYCF 3</t>
-  </si>
-  <si>
     <t>x</t>
   </si>
   <si>
-    <t>IYCF 2</t>
-  </si>
-  <si>
     <t>IYCF 1</t>
   </si>
   <si>
@@ -150,9 +150,6 @@
     <t>Calcium supplementation</t>
   </si>
   <si>
-    <t>Birth age program</t>
-  </si>
-  <si>
     <t>Balanced energy-protein supplementation</t>
   </si>
   <si>
@@ -204,13 +201,13 @@
     <t>1,2</t>
   </si>
   <si>
-    <t>thrive, child_deaths</t>
+    <t>thrive</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="3">
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="0.0%"/>
@@ -340,7 +337,7 @@
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="1"/>
+    <cellStyle name="Normal 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -788,275 +785,257 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <tabColor rgb="FF007600"/>
   </sheetPr>
-  <dimension ref="A1:B37"/>
+  <dimension ref="A1:B34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C45" sqref="C45"/>
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="56" style="5" customWidth="1"/>
-    <col min="2" max="2" width="15.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.83203125" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="16384" width="11.5" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A1" s="3" t="s">
         <v>3</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A2" s="5" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="B2" s="4"/>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A3" s="5" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="B3" s="4"/>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A4" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="B4" s="4"/>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+        <v>29</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A5" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="B5" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="B5" s="4"/>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A6" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A7" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="B7" s="4"/>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A8" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="B8" s="4"/>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A9" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="B9" s="4"/>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A10" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="B10" s="4"/>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A11" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="B11" s="4"/>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A12" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="B12" s="4"/>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A13" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A14" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="B14" s="4"/>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A15" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A16" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16" s="4"/>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A17" s="5" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A6" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="B6" s="4"/>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A7" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="B7" s="4" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A8" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="B8" s="4"/>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A9" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="B9" s="4"/>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A10" s="14" t="s">
-        <v>44</v>
-      </c>
-      <c r="B10" s="4"/>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A11" s="14" t="s">
-        <v>45</v>
-      </c>
-      <c r="B11" s="4"/>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A12" s="14" t="s">
-        <v>46</v>
-      </c>
-      <c r="B12" s="4"/>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A13" s="14" t="s">
-        <v>47</v>
-      </c>
-      <c r="B13" s="4"/>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A14" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="B14" s="4" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A15" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="B15" s="4"/>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A16" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="B16" s="4" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A17" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="B17" s="4"/>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B17" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A18" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="B18" s="4" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
+        <v>16</v>
+      </c>
+      <c r="B18" s="4"/>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A19" s="5" t="s">
-        <v>6</v>
+        <v>22</v>
       </c>
       <c r="B19" s="4"/>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A20" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="B20" s="4"/>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A21" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="B21" s="4"/>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A22" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B22" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B20" s="4"/>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A21" s="5" t="s">
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A23" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="B23" s="4"/>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A24" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="B21" s="4"/>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A22" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="B22" s="4"/>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A23" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="B23" s="4"/>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A24" s="5" t="s">
-        <v>22</v>
-      </c>
       <c r="B24" s="4"/>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A25" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="B25" s="4" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B25" s="4"/>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A26" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="B26" s="4"/>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
+        <v>14</v>
+      </c>
+      <c r="B26" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A27" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="B27" s="4"/>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
+        <v>13</v>
+      </c>
+      <c r="B27" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A28" s="5" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="B28" s="4"/>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A29" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="B29" s="4" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
+        <v>11</v>
+      </c>
+      <c r="B29" s="4"/>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A30" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="B30" s="4" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
+        <v>10</v>
+      </c>
+      <c r="B30" s="4"/>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A31" s="5" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="B31" s="4"/>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A32" s="5" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="B32" s="4"/>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A33" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="B33" s="4"/>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
+        <v>7</v>
+      </c>
+      <c r="B33" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A34" s="5" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="B34" s="4"/>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A35" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="B35" s="4"/>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A36" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="B36" s="4" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A37" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="B37" s="4"/>
-    </row>
   </sheetData>
-  <sortState ref="A2:B37">
-    <sortCondition ref="A2:A37"/>
+  <sortState ref="A2:B34">
+    <sortCondition ref="A2:A34"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
@@ -1064,24 +1043,24 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr>
     <tabColor theme="8" tint="-0.249977111117893"/>
   </sheetPr>
-  <dimension ref="A1:AE38"/>
+  <dimension ref="A1:AE35"/>
   <sheetViews>
     <sheetView zoomScaleNormal="170" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+      <selection activeCell="A17" sqref="A17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="56.5" style="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.875" style="5"/>
-    <col min="3" max="4" width="10.875" style="1"/>
+    <col min="2" max="2" width="10.83203125" style="5"/>
+    <col min="3" max="4" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>3</v>
       </c>
@@ -1136,9 +1115,9 @@
       <c r="AD1" s="2"/>
       <c r="AE1" s="2"/>
     </row>
-    <row r="2" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A2" s="5" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="B2" s="5" t="s">
         <v>0</v>
@@ -1153,9 +1132,9 @@
       <c r="J2" s="13"/>
       <c r="K2" s="13"/>
     </row>
-    <row r="3" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A3" s="5" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="B3" s="5" t="s">
         <v>0</v>
@@ -1170,9 +1149,9 @@
       <c r="J3" s="13"/>
       <c r="K3" s="13"/>
     </row>
-    <row r="4" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A4" s="5" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="B4" s="5" t="s">
         <v>0</v>
@@ -1187,9 +1166,9 @@
       <c r="J4" s="13"/>
       <c r="K4" s="13"/>
     </row>
-    <row r="5" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A5" s="5" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="B5" s="5" t="s">
         <v>0</v>
@@ -1204,9 +1183,9 @@
       <c r="J5" s="13"/>
       <c r="K5" s="13"/>
     </row>
-    <row r="6" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A6" s="5" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="B6" s="5" t="s">
         <v>0</v>
@@ -1221,9 +1200,9 @@
       <c r="J6" s="13"/>
       <c r="K6" s="13"/>
     </row>
-    <row r="7" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A7" s="5" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>0</v>
@@ -1238,9 +1217,9 @@
       <c r="J7" s="13"/>
       <c r="K7" s="13"/>
     </row>
-    <row r="8" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A8" s="5" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="B8" s="5" t="s">
         <v>0</v>
@@ -1255,9 +1234,9 @@
       <c r="J8" s="13"/>
       <c r="K8" s="13"/>
     </row>
-    <row r="9" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A9" s="5" t="s">
-        <v>27</v>
+    <row r="9" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="A9" s="14" t="s">
+        <v>41</v>
       </c>
       <c r="B9" s="5" t="s">
         <v>0</v>
@@ -1272,9 +1251,9 @@
       <c r="J9" s="13"/>
       <c r="K9" s="13"/>
     </row>
-    <row r="10" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A10" s="14" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>0</v>
@@ -1289,9 +1268,9 @@
       <c r="J10" s="13"/>
       <c r="K10" s="13"/>
     </row>
-    <row r="11" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A11" s="14" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B11" s="5" t="s">
         <v>0</v>
@@ -1306,9 +1285,9 @@
       <c r="J11" s="13"/>
       <c r="K11" s="13"/>
     </row>
-    <row r="12" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A12" s="14" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>0</v>
@@ -1323,15 +1302,17 @@
       <c r="J12" s="13"/>
       <c r="K12" s="13"/>
     </row>
-    <row r="13" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A13" s="14" t="s">
-        <v>47</v>
+    <row r="13" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="A13" s="5" t="s">
+        <v>40</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>0</v>
       </c>
       <c r="C13" s="13"/>
-      <c r="D13" s="13"/>
+      <c r="D13" s="13">
+        <v>0.95</v>
+      </c>
       <c r="E13" s="13"/>
       <c r="F13" s="13"/>
       <c r="G13" s="13"/>
@@ -1340,17 +1321,15 @@
       <c r="J13" s="13"/>
       <c r="K13" s="13"/>
     </row>
-    <row r="14" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A14" s="5" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B14" s="5" t="s">
         <v>0</v>
       </c>
       <c r="C14" s="13"/>
-      <c r="D14" s="13">
-        <v>0.95</v>
-      </c>
+      <c r="D14" s="13"/>
       <c r="E14" s="13"/>
       <c r="F14" s="13"/>
       <c r="G14" s="13"/>
@@ -1359,9 +1338,9 @@
       <c r="J14" s="13"/>
       <c r="K14" s="13"/>
     </row>
-    <row r="15" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A15" s="5" t="s">
-        <v>48</v>
+        <v>24</v>
       </c>
       <c r="B15" s="5" t="s">
         <v>0</v>
@@ -1376,9 +1355,9 @@
       <c r="J15" s="13"/>
       <c r="K15" s="13"/>
     </row>
-    <row r="16" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A16" s="5" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>0</v>
@@ -1393,15 +1372,17 @@
       <c r="J16" s="13"/>
       <c r="K16" s="13"/>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A17" s="5" t="s">
-        <v>25</v>
+        <v>5</v>
       </c>
       <c r="B17" s="5" t="s">
         <v>0</v>
       </c>
       <c r="C17" s="13"/>
-      <c r="D17" s="13"/>
+      <c r="D17" s="13">
+        <v>0.95</v>
+      </c>
       <c r="E17" s="13"/>
       <c r="F17" s="13"/>
       <c r="G17" s="13"/>
@@ -1410,17 +1391,15 @@
       <c r="J17" s="13"/>
       <c r="K17" s="13"/>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A18" s="5" t="s">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="B18" s="5" t="s">
         <v>0</v>
       </c>
       <c r="C18" s="13"/>
-      <c r="D18" s="13">
-        <v>0.95</v>
-      </c>
+      <c r="D18" s="13"/>
       <c r="E18" s="13"/>
       <c r="F18" s="13"/>
       <c r="G18" s="13"/>
@@ -1429,9 +1408,9 @@
       <c r="J18" s="13"/>
       <c r="K18" s="13"/>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A19" s="5" t="s">
-        <v>6</v>
+        <v>22</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>0</v>
@@ -1446,9 +1425,9 @@
       <c r="J19" s="13"/>
       <c r="K19" s="13"/>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A20" s="5" t="s">
-        <v>4</v>
+        <v>21</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>0</v>
@@ -1463,9 +1442,9 @@
       <c r="J20" s="13"/>
       <c r="K20" s="13"/>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A21" s="5" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B21" s="5" t="s">
         <v>0</v>
@@ -1480,9 +1459,9 @@
       <c r="J21" s="13"/>
       <c r="K21" s="13"/>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A22" s="5" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>0</v>
@@ -1497,9 +1476,9 @@
       <c r="J22" s="13"/>
       <c r="K22" s="13"/>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A23" s="5" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="B23" s="5" t="s">
         <v>0</v>
@@ -1514,9 +1493,9 @@
       <c r="J23" s="13"/>
       <c r="K23" s="13"/>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A24" s="5" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>0</v>
@@ -1531,7 +1510,7 @@
       <c r="J24" s="13"/>
       <c r="K24" s="13"/>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A25" s="5" t="s">
         <v>17</v>
       </c>
@@ -1548,15 +1527,17 @@
       <c r="J25" s="13"/>
       <c r="K25" s="13"/>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A26" s="5" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="B26" s="5" t="s">
         <v>0</v>
       </c>
       <c r="C26" s="13"/>
-      <c r="D26" s="13"/>
+      <c r="D26" s="13">
+        <v>0.95</v>
+      </c>
       <c r="E26" s="13"/>
       <c r="F26" s="13"/>
       <c r="G26" s="13"/>
@@ -1565,15 +1546,17 @@
       <c r="J26" s="13"/>
       <c r="K26" s="13"/>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A27" s="5" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="B27" s="5" t="s">
         <v>0</v>
       </c>
       <c r="C27" s="13"/>
-      <c r="D27" s="13"/>
+      <c r="D27" s="13">
+        <v>0.95</v>
+      </c>
       <c r="E27" s="13"/>
       <c r="F27" s="13"/>
       <c r="G27" s="13"/>
@@ -1582,9 +1565,9 @@
       <c r="J27" s="13"/>
       <c r="K27" s="13"/>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A28" s="5" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>0</v>
@@ -1599,17 +1582,15 @@
       <c r="J28" s="13"/>
       <c r="K28" s="13"/>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A29" s="5" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="B29" s="5" t="s">
         <v>0</v>
       </c>
       <c r="C29" s="13"/>
-      <c r="D29" s="13">
-        <v>0.95</v>
-      </c>
+      <c r="D29" s="13"/>
       <c r="E29" s="13"/>
       <c r="F29" s="13"/>
       <c r="G29" s="13"/>
@@ -1618,17 +1599,15 @@
       <c r="J29" s="13"/>
       <c r="K29" s="13"/>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A30" s="5" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="B30" s="5" t="s">
         <v>0</v>
       </c>
       <c r="C30" s="13"/>
-      <c r="D30" s="13">
-        <v>0.95</v>
-      </c>
+      <c r="D30" s="13"/>
       <c r="E30" s="13"/>
       <c r="F30" s="13"/>
       <c r="G30" s="13"/>
@@ -1637,9 +1616,9 @@
       <c r="J30" s="13"/>
       <c r="K30" s="13"/>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A31" s="5" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="B31" s="5" t="s">
         <v>0</v>
@@ -1654,9 +1633,9 @@
       <c r="J31" s="13"/>
       <c r="K31" s="13"/>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A32" s="5" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="B32" s="5" t="s">
         <v>0</v>
@@ -1671,9 +1650,9 @@
       <c r="J32" s="13"/>
       <c r="K32" s="13"/>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A33" s="5" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="B33" s="5" t="s">
         <v>0</v>
@@ -1688,9 +1667,9 @@
       <c r="J33" s="13"/>
       <c r="K33" s="13"/>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A34" s="5" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="B34" s="5" t="s">
         <v>0</v>
@@ -1705,71 +1684,20 @@
       <c r="J34" s="13"/>
       <c r="K34" s="13"/>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A35" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="B35" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="C35" s="13"/>
-      <c r="D35" s="13"/>
-      <c r="E35" s="13"/>
-      <c r="F35" s="13"/>
-      <c r="G35" s="13"/>
-      <c r="H35" s="13"/>
-      <c r="I35" s="13"/>
-      <c r="J35" s="13"/>
-      <c r="K35" s="13"/>
-    </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A36" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="B36" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="C36" s="13"/>
-      <c r="D36" s="13"/>
-      <c r="E36" s="13"/>
-      <c r="F36" s="13"/>
-      <c r="G36" s="13"/>
-      <c r="H36" s="13"/>
-      <c r="I36" s="13"/>
-      <c r="J36" s="13"/>
-      <c r="K36" s="13"/>
-    </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A37" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="B37" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="C37" s="13"/>
-      <c r="D37" s="13"/>
-      <c r="E37" s="13"/>
-      <c r="F37" s="13"/>
-      <c r="G37" s="13"/>
-      <c r="H37" s="13"/>
-      <c r="I37" s="13"/>
-      <c r="J37" s="13"/>
-      <c r="K37" s="13"/>
-    </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="C38" s="6"/>
-      <c r="D38" s="6"/>
-      <c r="E38" s="7"/>
-      <c r="F38" s="7"/>
-      <c r="G38" s="7"/>
-      <c r="H38" s="7"/>
-      <c r="I38" s="7"/>
-      <c r="J38" s="7"/>
-      <c r="K38" s="7"/>
+    <row r="35" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="C35" s="6"/>
+      <c r="D35" s="6"/>
+      <c r="E35" s="7"/>
+      <c r="F35" s="7"/>
+      <c r="G35" s="7"/>
+      <c r="H35" s="7"/>
+      <c r="I35" s="7"/>
+      <c r="J35" s="7"/>
+      <c r="K35" s="7"/>
     </row>
   </sheetData>
-  <sortState ref="A2:K37">
-    <sortCondition ref="A2:A37"/>
+  <sortState ref="A2:K34">
+    <sortCondition ref="A2:A34"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
@@ -1777,25 +1705,25 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr>
     <tabColor theme="8" tint="-0.249977111117893"/>
   </sheetPr>
-  <dimension ref="A1:S38"/>
+  <dimension ref="A1:S35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K1" sqref="K1"/>
+      <selection activeCell="A17" sqref="A17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="56.5" style="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.875" style="5"/>
-    <col min="3" max="4" width="10.875" style="1"/>
-    <col min="12" max="12" width="10.875" style="1"/>
+    <col min="2" max="2" width="10.83203125" style="5"/>
+    <col min="3" max="4" width="10.83203125" style="1"/>
+    <col min="12" max="12" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>3</v>
       </c>
@@ -1838,9 +1766,9 @@
       <c r="R1" s="2"/>
       <c r="S1" s="2"/>
     </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A2" s="5" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="B2" s="5" t="s">
         <v>1</v>
@@ -1855,9 +1783,9 @@
       <c r="J2" s="16"/>
       <c r="K2" s="16"/>
     </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A3" s="5" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="B3" s="5" t="s">
         <v>1</v>
@@ -1872,9 +1800,9 @@
       <c r="J3" s="16"/>
       <c r="K3" s="16"/>
     </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A4" s="5" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="B4" s="5" t="s">
         <v>1</v>
@@ -1889,9 +1817,9 @@
       <c r="J4" s="16"/>
       <c r="K4" s="16"/>
     </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A5" s="5" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="B5" s="5" t="s">
         <v>1</v>
@@ -1906,9 +1834,9 @@
       <c r="J5" s="16"/>
       <c r="K5" s="16"/>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A6" s="5" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="B6" s="5" t="s">
         <v>1</v>
@@ -1923,9 +1851,9 @@
       <c r="J6" s="16"/>
       <c r="K6" s="16"/>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A7" s="5" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>1</v>
@@ -1940,9 +1868,9 @@
       <c r="J7" s="16"/>
       <c r="K7" s="16"/>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A8" s="5" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="B8" s="5" t="s">
         <v>1</v>
@@ -1957,9 +1885,9 @@
       <c r="J8" s="16"/>
       <c r="K8" s="16"/>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A9" s="5" t="s">
-        <v>27</v>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A9" s="14" t="s">
+        <v>41</v>
       </c>
       <c r="B9" s="5" t="s">
         <v>1</v>
@@ -1974,9 +1902,9 @@
       <c r="J9" s="16"/>
       <c r="K9" s="16"/>
     </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A10" s="14" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>1</v>
@@ -1991,9 +1919,9 @@
       <c r="J10" s="16"/>
       <c r="K10" s="16"/>
     </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A11" s="14" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B11" s="5" t="s">
         <v>1</v>
@@ -2008,9 +1936,9 @@
       <c r="J11" s="16"/>
       <c r="K11" s="16"/>
     </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A12" s="14" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>1</v>
@@ -2025,9 +1953,9 @@
       <c r="J12" s="16"/>
       <c r="K12" s="16"/>
     </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A13" s="14" t="s">
-        <v>47</v>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A13" s="5" t="s">
+        <v>40</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>1</v>
@@ -2042,9 +1970,9 @@
       <c r="J13" s="16"/>
       <c r="K13" s="16"/>
     </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A14" s="5" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B14" s="5" t="s">
         <v>1</v>
@@ -2059,9 +1987,9 @@
       <c r="J14" s="16"/>
       <c r="K14" s="16"/>
     </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A15" s="5" t="s">
-        <v>48</v>
+        <v>24</v>
       </c>
       <c r="B15" s="5" t="s">
         <v>1</v>
@@ -2076,9 +2004,9 @@
       <c r="J15" s="16"/>
       <c r="K15" s="16"/>
     </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A16" s="5" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>1</v>
@@ -2093,9 +2021,9 @@
       <c r="J16" s="16"/>
       <c r="K16" s="16"/>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A17" s="5" t="s">
-        <v>25</v>
+        <v>5</v>
       </c>
       <c r="B17" s="5" t="s">
         <v>1</v>
@@ -2110,9 +2038,9 @@
       <c r="J17" s="16"/>
       <c r="K17" s="16"/>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A18" s="5" t="s">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="B18" s="5" t="s">
         <v>1</v>
@@ -2127,9 +2055,9 @@
       <c r="J18" s="16"/>
       <c r="K18" s="16"/>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A19" s="5" t="s">
-        <v>6</v>
+        <v>22</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>1</v>
@@ -2144,9 +2072,9 @@
       <c r="J19" s="16"/>
       <c r="K19" s="16"/>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A20" s="5" t="s">
-        <v>4</v>
+        <v>21</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>1</v>
@@ -2161,9 +2089,9 @@
       <c r="J20" s="16"/>
       <c r="K20" s="16"/>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A21" s="5" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B21" s="5" t="s">
         <v>1</v>
@@ -2178,9 +2106,9 @@
       <c r="J21" s="16"/>
       <c r="K21" s="16"/>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A22" s="5" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>1</v>
@@ -2195,9 +2123,9 @@
       <c r="J22" s="16"/>
       <c r="K22" s="16"/>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A23" s="5" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="B23" s="5" t="s">
         <v>1</v>
@@ -2212,9 +2140,9 @@
       <c r="J23" s="16"/>
       <c r="K23" s="16"/>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A24" s="5" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>1</v>
@@ -2229,7 +2157,7 @@
       <c r="J24" s="16"/>
       <c r="K24" s="16"/>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A25" s="5" t="s">
         <v>17</v>
       </c>
@@ -2246,9 +2174,9 @@
       <c r="J25" s="16"/>
       <c r="K25" s="16"/>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A26" s="5" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="B26" s="5" t="s">
         <v>1</v>
@@ -2263,9 +2191,9 @@
       <c r="J26" s="16"/>
       <c r="K26" s="16"/>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A27" s="5" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="B27" s="5" t="s">
         <v>1</v>
@@ -2280,9 +2208,9 @@
       <c r="J27" s="16"/>
       <c r="K27" s="16"/>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A28" s="5" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>1</v>
@@ -2297,9 +2225,9 @@
       <c r="J28" s="16"/>
       <c r="K28" s="16"/>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A29" s="5" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="B29" s="5" t="s">
         <v>1</v>
@@ -2314,9 +2242,9 @@
       <c r="J29" s="16"/>
       <c r="K29" s="16"/>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A30" s="5" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="B30" s="5" t="s">
         <v>1</v>
@@ -2331,9 +2259,9 @@
       <c r="J30" s="16"/>
       <c r="K30" s="16"/>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A31" s="5" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="B31" s="5" t="s">
         <v>1</v>
@@ -2348,9 +2276,9 @@
       <c r="J31" s="16"/>
       <c r="K31" s="16"/>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A32" s="5" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="B32" s="5" t="s">
         <v>1</v>
@@ -2365,9 +2293,9 @@
       <c r="J32" s="16"/>
       <c r="K32" s="16"/>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A33" s="5" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="B33" s="5" t="s">
         <v>1</v>
@@ -2382,9 +2310,9 @@
       <c r="J33" s="16"/>
       <c r="K33" s="16"/>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A34" s="5" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="B34" s="5" t="s">
         <v>1</v>
@@ -2399,71 +2327,20 @@
       <c r="J34" s="16"/>
       <c r="K34" s="16"/>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A35" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="B35" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="C35" s="16"/>
-      <c r="D35" s="16"/>
-      <c r="E35" s="16"/>
-      <c r="F35" s="16"/>
-      <c r="G35" s="16"/>
-      <c r="H35" s="16"/>
-      <c r="I35" s="16"/>
-      <c r="J35" s="16"/>
-      <c r="K35" s="16"/>
-    </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A36" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="B36" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="C36" s="16"/>
-      <c r="D36" s="16"/>
-      <c r="E36" s="16"/>
-      <c r="F36" s="16"/>
-      <c r="G36" s="16"/>
-      <c r="H36" s="16"/>
-      <c r="I36" s="16"/>
-      <c r="J36" s="16"/>
-      <c r="K36" s="16"/>
-    </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A37" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="B37" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="C37" s="16"/>
-      <c r="D37" s="16"/>
-      <c r="E37" s="16"/>
-      <c r="F37" s="16"/>
-      <c r="G37" s="16"/>
-      <c r="H37" s="16"/>
-      <c r="I37" s="16"/>
-      <c r="J37" s="16"/>
-      <c r="K37" s="16"/>
-    </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="C38" s="6"/>
-      <c r="D38" s="6"/>
-      <c r="E38" s="7"/>
-      <c r="F38" s="7"/>
-      <c r="G38" s="7"/>
-      <c r="H38" s="7"/>
-      <c r="I38" s="7"/>
-      <c r="J38" s="7"/>
-      <c r="K38" s="7"/>
+    <row r="35" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="C35" s="6"/>
+      <c r="D35" s="6"/>
+      <c r="E35" s="7"/>
+      <c r="F35" s="7"/>
+      <c r="G35" s="7"/>
+      <c r="H35" s="7"/>
+      <c r="I35" s="7"/>
+      <c r="J35" s="7"/>
+      <c r="K35" s="7"/>
     </row>
   </sheetData>
-  <sortState ref="A2:K37">
-    <sortCondition ref="A2:A37"/>
+  <sortState ref="A2:K34">
+    <sortCondition ref="A2:A34"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
@@ -2471,47 +2348,48 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <sheetPr>
     <tabColor rgb="FF7030A0"/>
   </sheetPr>
   <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="150" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="4" max="4" width="13.875" customWidth="1"/>
-    <col min="5" max="5" width="14.375" customWidth="1"/>
+    <col min="3" max="3" width="15.1640625" customWidth="1"/>
+    <col min="4" max="4" width="13.83203125" customWidth="1"/>
+    <col min="5" max="5" width="14.33203125" customWidth="1"/>
     <col min="6" max="6" width="16" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" ht="27" x14ac:dyDescent="0.2">
       <c r="A1" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="B1" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="C1" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="D1" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="E1" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="F1" s="15" t="s">
+        <v>46</v>
+      </c>
+      <c r="G1" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="B1" s="10" t="s">
-        <v>40</v>
-      </c>
-      <c r="C1" s="10" t="s">
-        <v>36</v>
-      </c>
-      <c r="D1" s="10" t="s">
-        <v>37</v>
-      </c>
-      <c r="E1" s="10" t="s">
-        <v>38</v>
-      </c>
-      <c r="F1" s="15" t="s">
-        <v>49</v>
-      </c>
-      <c r="G1" s="12" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" s="8">
         <v>2017</v>
       </c>
@@ -2519,19 +2397,19 @@
         <v>2025</v>
       </c>
       <c r="C2" s="8" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="D2" s="9" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="E2" s="11">
-        <v>10000000</v>
+        <v>5000000</v>
       </c>
       <c r="F2" s="8" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="G2" s="9" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
     </row>
   </sheetData>

--- a/applications/default/data/national/default_options.xlsx
+++ b/applications/default/data/national/default_options.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/samhainsworth/Desktop/github_projects/Nutrition/applications/default/data/national/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{6E657738-082C-FD4D-B176-991B1A67DC5B}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{A89FFA75-95DA-1442-9541-75616182C0B6}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="13020" yWindow="-21140" windowWidth="19200" windowHeight="21140" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="13020" yWindow="-21140" windowWidth="19200" windowHeight="21140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Programs to include" sheetId="3" r:id="rId1"/>
@@ -55,7 +55,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="191" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="47">
   <si>
     <t>Coverage</t>
   </si>
@@ -130,12 +130,6 @@
   </si>
   <si>
     <t>IPTp</t>
-  </si>
-  <si>
-    <t>IFA fortification of wheat flour</t>
-  </si>
-  <si>
-    <t>IFA fortification of rice</t>
   </si>
   <si>
     <t>IFA fortification of maize</t>
@@ -539,7 +533,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light"/>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -591,7 +585,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -796,10 +790,10 @@
   <sheetPr>
     <tabColor rgb="FF007600"/>
   </sheetPr>
-  <dimension ref="A1:B34"/>
+  <dimension ref="A1:B32"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -814,24 +808,24 @@
         <v>3</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A2" s="5" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B2" s="4"/>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A3" s="5" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B3" s="4"/>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A4" s="5" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B4" s="4" t="s">
         <v>4</v>
@@ -839,27 +833,27 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A5" s="5" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B5" s="4"/>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A6" s="5" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B6" s="4" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A7" s="5" t="s">
-        <v>26</v>
+      <c r="A7" s="14" t="s">
+        <v>39</v>
       </c>
       <c r="B7" s="4"/>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A8" s="5" t="s">
-        <v>25</v>
+      <c r="A8" s="14" t="s">
+        <v>40</v>
       </c>
       <c r="B8" s="4"/>
     </row>
@@ -876,20 +870,22 @@
       <c r="B10" s="4"/>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A11" s="14" t="s">
+      <c r="A11" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A12" s="5" t="s">
         <v>43</v>
-      </c>
-      <c r="B11" s="4"/>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A12" s="14" t="s">
-        <v>44</v>
       </c>
       <c r="B12" s="4"/>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A13" s="5" t="s">
-        <v>40</v>
+        <v>24</v>
       </c>
       <c r="B13" s="4" t="s">
         <v>4</v>
@@ -897,13 +893,13 @@
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A14" s="5" t="s">
-        <v>45</v>
+        <v>23</v>
       </c>
       <c r="B14" s="4"/>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A15" s="5" t="s">
-        <v>24</v>
+        <v>5</v>
       </c>
       <c r="B15" s="4" t="s">
         <v>4</v>
@@ -911,131 +907,117 @@
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A16" s="5" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="B16" s="4"/>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A17" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="B17" s="4" t="s">
-        <v>4</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="B17" s="4"/>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A18" s="5" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="B18" s="4"/>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A19" s="5" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B19" s="4"/>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A20" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="B20" s="4"/>
+        <v>15</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A21" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B21" s="4"/>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A22" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="B22" s="4" t="s">
-        <v>4</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="B22" s="4"/>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A23" s="5" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B23" s="4"/>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A24" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="B24" s="4"/>
+        <v>14</v>
+      </c>
+      <c r="B24" s="4" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A25" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="B25" s="4"/>
+        <v>13</v>
+      </c>
+      <c r="B25" s="4" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A26" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="B26" s="4" t="s">
-        <v>4</v>
-      </c>
+        <v>12</v>
+      </c>
+      <c r="B26" s="4"/>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A27" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="B27" s="4" t="s">
-        <v>4</v>
-      </c>
+        <v>11</v>
+      </c>
+      <c r="B27" s="4"/>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A28" s="5" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B28" s="4"/>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A29" s="5" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B29" s="4"/>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A30" s="5" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B30" s="4"/>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A31" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="B31" s="4"/>
+        <v>7</v>
+      </c>
+      <c r="B31" s="4" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A32" s="5" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B32" s="4"/>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A33" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="B33" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A34" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="B34" s="4"/>
-    </row>
   </sheetData>
-  <sortState ref="A2:B34">
-    <sortCondition ref="A2:A34"/>
+  <sortState ref="A2:B32">
+    <sortCondition ref="A2:A32"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
@@ -1047,10 +1029,10 @@
   <sheetPr>
     <tabColor theme="8" tint="-0.249977111117893"/>
   </sheetPr>
-  <dimension ref="A1:AE35"/>
+  <dimension ref="A1:AE33"/>
   <sheetViews>
     <sheetView zoomScaleNormal="170" workbookViewId="0">
-      <selection activeCell="A17" sqref="A17"/>
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1117,7 +1099,7 @@
     </row>
     <row r="2" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A2" s="5" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B2" s="5" t="s">
         <v>0</v>
@@ -1134,7 +1116,7 @@
     </row>
     <row r="3" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A3" s="5" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B3" s="5" t="s">
         <v>0</v>
@@ -1151,7 +1133,7 @@
     </row>
     <row r="4" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A4" s="5" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B4" s="5" t="s">
         <v>0</v>
@@ -1168,7 +1150,7 @@
     </row>
     <row r="5" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A5" s="5" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B5" s="5" t="s">
         <v>0</v>
@@ -1185,7 +1167,7 @@
     </row>
     <row r="6" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A6" s="5" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B6" s="5" t="s">
         <v>0</v>
@@ -1201,8 +1183,8 @@
       <c r="K6" s="13"/>
     </row>
     <row r="7" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A7" s="5" t="s">
-        <v>26</v>
+      <c r="A7" s="14" t="s">
+        <v>39</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>0</v>
@@ -1218,8 +1200,8 @@
       <c r="K7" s="13"/>
     </row>
     <row r="8" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A8" s="5" t="s">
-        <v>25</v>
+      <c r="A8" s="14" t="s">
+        <v>40</v>
       </c>
       <c r="B8" s="5" t="s">
         <v>0</v>
@@ -1269,14 +1251,16 @@
       <c r="K10" s="13"/>
     </row>
     <row r="11" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A11" s="14" t="s">
-        <v>43</v>
+      <c r="A11" s="5" t="s">
+        <v>38</v>
       </c>
       <c r="B11" s="5" t="s">
         <v>0</v>
       </c>
       <c r="C11" s="13"/>
-      <c r="D11" s="13"/>
+      <c r="D11" s="13">
+        <v>0.95</v>
+      </c>
       <c r="E11" s="13"/>
       <c r="F11" s="13"/>
       <c r="G11" s="13"/>
@@ -1286,8 +1270,8 @@
       <c r="K11" s="13"/>
     </row>
     <row r="12" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A12" s="14" t="s">
-        <v>44</v>
+      <c r="A12" s="5" t="s">
+        <v>43</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>0</v>
@@ -1304,15 +1288,13 @@
     </row>
     <row r="13" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A13" s="5" t="s">
-        <v>40</v>
+        <v>24</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>0</v>
       </c>
       <c r="C13" s="13"/>
-      <c r="D13" s="13">
-        <v>0.95</v>
-      </c>
+      <c r="D13" s="13"/>
       <c r="E13" s="13"/>
       <c r="F13" s="13"/>
       <c r="G13" s="13"/>
@@ -1323,7 +1305,7 @@
     </row>
     <row r="14" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A14" s="5" t="s">
-        <v>45</v>
+        <v>23</v>
       </c>
       <c r="B14" s="5" t="s">
         <v>0</v>
@@ -1340,13 +1322,15 @@
     </row>
     <row r="15" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A15" s="5" t="s">
-        <v>24</v>
+        <v>5</v>
       </c>
       <c r="B15" s="5" t="s">
         <v>0</v>
       </c>
       <c r="C15" s="13"/>
-      <c r="D15" s="13"/>
+      <c r="D15" s="13">
+        <v>0.95</v>
+      </c>
       <c r="E15" s="13"/>
       <c r="F15" s="13"/>
       <c r="G15" s="13"/>
@@ -1357,7 +1341,7 @@
     </row>
     <row r="16" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A16" s="5" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>0</v>
@@ -1374,15 +1358,13 @@
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A17" s="5" t="s">
-        <v>5</v>
+        <v>22</v>
       </c>
       <c r="B17" s="5" t="s">
         <v>0</v>
       </c>
       <c r="C17" s="13"/>
-      <c r="D17" s="13">
-        <v>0.95</v>
-      </c>
+      <c r="D17" s="13"/>
       <c r="E17" s="13"/>
       <c r="F17" s="13"/>
       <c r="G17" s="13"/>
@@ -1393,7 +1375,7 @@
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A18" s="5" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="B18" s="5" t="s">
         <v>0</v>
@@ -1410,7 +1392,7 @@
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A19" s="5" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>0</v>
@@ -1427,7 +1409,7 @@
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A20" s="5" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>0</v>
@@ -1444,7 +1426,7 @@
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A21" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B21" s="5" t="s">
         <v>0</v>
@@ -1461,7 +1443,7 @@
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A22" s="5" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>0</v>
@@ -1478,7 +1460,7 @@
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A23" s="5" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B23" s="5" t="s">
         <v>0</v>
@@ -1495,13 +1477,15 @@
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A24" s="5" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>0</v>
       </c>
       <c r="C24" s="13"/>
-      <c r="D24" s="13"/>
+      <c r="D24" s="13">
+        <v>0.95</v>
+      </c>
       <c r="E24" s="13"/>
       <c r="F24" s="13"/>
       <c r="G24" s="13"/>
@@ -1512,13 +1496,15 @@
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A25" s="5" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="B25" s="5" t="s">
         <v>0</v>
       </c>
       <c r="C25" s="13"/>
-      <c r="D25" s="13"/>
+      <c r="D25" s="13">
+        <v>0.95</v>
+      </c>
       <c r="E25" s="13"/>
       <c r="F25" s="13"/>
       <c r="G25" s="13"/>
@@ -1529,15 +1515,13 @@
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A26" s="5" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B26" s="5" t="s">
         <v>0</v>
       </c>
       <c r="C26" s="13"/>
-      <c r="D26" s="13">
-        <v>0.95</v>
-      </c>
+      <c r="D26" s="13"/>
       <c r="E26" s="13"/>
       <c r="F26" s="13"/>
       <c r="G26" s="13"/>
@@ -1548,15 +1532,13 @@
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A27" s="5" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B27" s="5" t="s">
         <v>0</v>
       </c>
       <c r="C27" s="13"/>
-      <c r="D27" s="13">
-        <v>0.95</v>
-      </c>
+      <c r="D27" s="13"/>
       <c r="E27" s="13"/>
       <c r="F27" s="13"/>
       <c r="G27" s="13"/>
@@ -1567,7 +1549,7 @@
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A28" s="5" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>0</v>
@@ -1584,7 +1566,7 @@
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A29" s="5" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B29" s="5" t="s">
         <v>0</v>
@@ -1601,7 +1583,7 @@
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A30" s="5" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B30" s="5" t="s">
         <v>0</v>
@@ -1618,7 +1600,7 @@
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A31" s="5" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B31" s="5" t="s">
         <v>0</v>
@@ -1635,7 +1617,7 @@
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A32" s="5" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B32" s="5" t="s">
         <v>0</v>
@@ -1650,54 +1632,20 @@
       <c r="J32" s="13"/>
       <c r="K32" s="13"/>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A33" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="B33" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="C33" s="13"/>
-      <c r="D33" s="13"/>
-      <c r="E33" s="13"/>
-      <c r="F33" s="13"/>
-      <c r="G33" s="13"/>
-      <c r="H33" s="13"/>
-      <c r="I33" s="13"/>
-      <c r="J33" s="13"/>
-      <c r="K33" s="13"/>
-    </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A34" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="B34" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="C34" s="13"/>
-      <c r="D34" s="13"/>
-      <c r="E34" s="13"/>
-      <c r="F34" s="13"/>
-      <c r="G34" s="13"/>
-      <c r="H34" s="13"/>
-      <c r="I34" s="13"/>
-      <c r="J34" s="13"/>
-      <c r="K34" s="13"/>
-    </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="C35" s="6"/>
-      <c r="D35" s="6"/>
-      <c r="E35" s="7"/>
-      <c r="F35" s="7"/>
-      <c r="G35" s="7"/>
-      <c r="H35" s="7"/>
-      <c r="I35" s="7"/>
-      <c r="J35" s="7"/>
-      <c r="K35" s="7"/>
+    <row r="33" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="C33" s="6"/>
+      <c r="D33" s="6"/>
+      <c r="E33" s="7"/>
+      <c r="F33" s="7"/>
+      <c r="G33" s="7"/>
+      <c r="H33" s="7"/>
+      <c r="I33" s="7"/>
+      <c r="J33" s="7"/>
+      <c r="K33" s="7"/>
     </row>
   </sheetData>
-  <sortState ref="A2:K34">
-    <sortCondition ref="A2:A34"/>
+  <sortState ref="A2:K32">
+    <sortCondition ref="A2:A32"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
@@ -1709,10 +1657,10 @@
   <sheetPr>
     <tabColor theme="8" tint="-0.249977111117893"/>
   </sheetPr>
-  <dimension ref="A1:S35"/>
+  <dimension ref="A1:S33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A17" sqref="A17"/>
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1768,7 +1716,7 @@
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A2" s="5" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B2" s="5" t="s">
         <v>1</v>
@@ -1785,7 +1733,7 @@
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A3" s="5" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B3" s="5" t="s">
         <v>1</v>
@@ -1802,7 +1750,7 @@
     </row>
     <row r="4" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A4" s="5" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B4" s="5" t="s">
         <v>1</v>
@@ -1819,7 +1767,7 @@
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A5" s="5" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B5" s="5" t="s">
         <v>1</v>
@@ -1836,7 +1784,7 @@
     </row>
     <row r="6" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A6" s="5" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B6" s="5" t="s">
         <v>1</v>
@@ -1852,8 +1800,8 @@
       <c r="K6" s="16"/>
     </row>
     <row r="7" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A7" s="5" t="s">
-        <v>26</v>
+      <c r="A7" s="14" t="s">
+        <v>39</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>1</v>
@@ -1869,8 +1817,8 @@
       <c r="K7" s="16"/>
     </row>
     <row r="8" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A8" s="5" t="s">
-        <v>25</v>
+      <c r="A8" s="14" t="s">
+        <v>40</v>
       </c>
       <c r="B8" s="5" t="s">
         <v>1</v>
@@ -1920,8 +1868,8 @@
       <c r="K10" s="16"/>
     </row>
     <row r="11" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A11" s="14" t="s">
-        <v>43</v>
+      <c r="A11" s="5" t="s">
+        <v>38</v>
       </c>
       <c r="B11" s="5" t="s">
         <v>1</v>
@@ -1937,8 +1885,8 @@
       <c r="K11" s="16"/>
     </row>
     <row r="12" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A12" s="14" t="s">
-        <v>44</v>
+      <c r="A12" s="5" t="s">
+        <v>43</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>1</v>
@@ -1955,7 +1903,7 @@
     </row>
     <row r="13" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A13" s="5" t="s">
-        <v>40</v>
+        <v>24</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>1</v>
@@ -1972,7 +1920,7 @@
     </row>
     <row r="14" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A14" s="5" t="s">
-        <v>45</v>
+        <v>23</v>
       </c>
       <c r="B14" s="5" t="s">
         <v>1</v>
@@ -1989,7 +1937,7 @@
     </row>
     <row r="15" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A15" s="5" t="s">
-        <v>24</v>
+        <v>5</v>
       </c>
       <c r="B15" s="5" t="s">
         <v>1</v>
@@ -2006,7 +1954,7 @@
     </row>
     <row r="16" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A16" s="5" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>1</v>
@@ -2023,7 +1971,7 @@
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A17" s="5" t="s">
-        <v>5</v>
+        <v>22</v>
       </c>
       <c r="B17" s="5" t="s">
         <v>1</v>
@@ -2040,7 +1988,7 @@
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A18" s="5" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="B18" s="5" t="s">
         <v>1</v>
@@ -2057,7 +2005,7 @@
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A19" s="5" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>1</v>
@@ -2074,7 +2022,7 @@
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A20" s="5" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>1</v>
@@ -2091,7 +2039,7 @@
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A21" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B21" s="5" t="s">
         <v>1</v>
@@ -2108,7 +2056,7 @@
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A22" s="5" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>1</v>
@@ -2125,7 +2073,7 @@
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A23" s="5" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B23" s="5" t="s">
         <v>1</v>
@@ -2142,7 +2090,7 @@
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A24" s="5" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>1</v>
@@ -2159,7 +2107,7 @@
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A25" s="5" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="B25" s="5" t="s">
         <v>1</v>
@@ -2176,7 +2124,7 @@
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A26" s="5" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B26" s="5" t="s">
         <v>1</v>
@@ -2193,7 +2141,7 @@
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A27" s="5" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B27" s="5" t="s">
         <v>1</v>
@@ -2210,7 +2158,7 @@
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A28" s="5" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>1</v>
@@ -2227,7 +2175,7 @@
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A29" s="5" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B29" s="5" t="s">
         <v>1</v>
@@ -2244,7 +2192,7 @@
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A30" s="5" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B30" s="5" t="s">
         <v>1</v>
@@ -2261,7 +2209,7 @@
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A31" s="5" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B31" s="5" t="s">
         <v>1</v>
@@ -2278,7 +2226,7 @@
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A32" s="5" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B32" s="5" t="s">
         <v>1</v>
@@ -2293,54 +2241,20 @@
       <c r="J32" s="16"/>
       <c r="K32" s="16"/>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A33" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="B33" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="C33" s="16"/>
-      <c r="D33" s="16"/>
-      <c r="E33" s="16"/>
-      <c r="F33" s="16"/>
-      <c r="G33" s="16"/>
-      <c r="H33" s="16"/>
-      <c r="I33" s="16"/>
-      <c r="J33" s="16"/>
-      <c r="K33" s="16"/>
-    </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A34" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="B34" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="C34" s="16"/>
-      <c r="D34" s="16"/>
-      <c r="E34" s="16"/>
-      <c r="F34" s="16"/>
-      <c r="G34" s="16"/>
-      <c r="H34" s="16"/>
-      <c r="I34" s="16"/>
-      <c r="J34" s="16"/>
-      <c r="K34" s="16"/>
-    </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="C35" s="6"/>
-      <c r="D35" s="6"/>
-      <c r="E35" s="7"/>
-      <c r="F35" s="7"/>
-      <c r="G35" s="7"/>
-      <c r="H35" s="7"/>
-      <c r="I35" s="7"/>
-      <c r="J35" s="7"/>
-      <c r="K35" s="7"/>
+    <row r="33" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="C33" s="6"/>
+      <c r="D33" s="6"/>
+      <c r="E33" s="7"/>
+      <c r="F33" s="7"/>
+      <c r="G33" s="7"/>
+      <c r="H33" s="7"/>
+      <c r="I33" s="7"/>
+      <c r="J33" s="7"/>
+      <c r="K33" s="7"/>
     </row>
   </sheetData>
-  <sortState ref="A2:K34">
-    <sortCondition ref="A2:A34"/>
+  <sortState ref="A2:K32">
+    <sortCondition ref="A2:A32"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
@@ -2354,7 +2268,7 @@
   </sheetPr>
   <dimension ref="A1:G2"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="150" workbookViewId="0">
+    <sheetView zoomScale="150" workbookViewId="0">
       <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
@@ -2368,25 +2282,25 @@
   <sheetData>
     <row r="1" spans="1:7" ht="27" x14ac:dyDescent="0.2">
       <c r="A1" s="10" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B1" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="C1" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="D1" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="E1" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="F1" s="15" t="s">
+        <v>44</v>
+      </c>
+      <c r="G1" s="12" t="s">
         <v>37</v>
-      </c>
-      <c r="C1" s="10" t="s">
-        <v>33</v>
-      </c>
-      <c r="D1" s="10" t="s">
-        <v>34</v>
-      </c>
-      <c r="E1" s="10" t="s">
-        <v>35</v>
-      </c>
-      <c r="F1" s="15" t="s">
-        <v>46</v>
-      </c>
-      <c r="G1" s="12" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
@@ -2397,19 +2311,19 @@
         <v>2025</v>
       </c>
       <c r="C2" s="8" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="D2" s="9" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="E2" s="11">
         <v>5000000</v>
       </c>
       <c r="F2" s="8" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="G2" s="9" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
   </sheetData>

--- a/applications/default/data/national/default_options.xlsx
+++ b/applications/default/data/national/default_options.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/samhainsworth/Desktop/github_projects/Nutrition/applications/default/data/national/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{A89FFA75-95DA-1442-9541-75616182C0B6}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{F96F207E-770F-F64D-8924-EFF69BF38291}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="13020" yWindow="-21140" windowWidth="19200" windowHeight="21140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="13020" yWindow="-21140" windowWidth="19200" windowHeight="21140" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Programs to include" sheetId="3" r:id="rId1"/>
@@ -792,7 +792,7 @@
   </sheetPr>
   <dimension ref="A1:B32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
@@ -1031,8 +1031,8 @@
   </sheetPr>
   <dimension ref="A1:AE33"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="170" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+    <sheetView tabSelected="1" zoomScaleNormal="170" workbookViewId="0">
+      <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1415,7 +1415,9 @@
         <v>0</v>
       </c>
       <c r="C20" s="13"/>
-      <c r="D20" s="13"/>
+      <c r="D20" s="13">
+        <v>0.95</v>
+      </c>
       <c r="E20" s="13"/>
       <c r="F20" s="13"/>
       <c r="G20" s="13"/>
